--- a/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.020151689824415</v>
+      </c>
+      <c r="D3">
+        <v>1.062990563620398</v>
+      </c>
+      <c r="E3">
         <v>1.192692077138352</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1.020151689824415</v>
-      </c>
-      <c r="E3">
-        <v>1.062990563620398</v>
-      </c>
-      <c r="F3">
-        <v>1.192692077138352</v>
       </c>
       <c r="G3">
         <v>1.257249356214491</v>
@@ -632,10 +644,10 @@
         <v>0.9733727913175294</v>
       </c>
       <c r="I3">
+        <v>1.192692077138352</v>
+      </c>
+      <c r="J3">
         <v>1.041736460928056</v>
-      </c>
-      <c r="J3">
-        <v>1.020151689824415</v>
       </c>
       <c r="K3">
         <v>1.192692077138352</v>
@@ -676,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.272736994602419</v>
+      </c>
+      <c r="D4">
+        <v>1.185461344600689</v>
+      </c>
+      <c r="E4">
         <v>1.455318617902882</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.272736994602419</v>
-      </c>
-      <c r="E4">
-        <v>1.185461344600689</v>
-      </c>
-      <c r="F4">
-        <v>1.455318617902882</v>
       </c>
       <c r="G4">
         <v>1.510153810359975</v>
@@ -694,10 +706,10 @@
         <v>0.8964547595121962</v>
       </c>
       <c r="I4">
+        <v>1.455318617902882</v>
+      </c>
+      <c r="J4">
         <v>1.125997325644179</v>
-      </c>
-      <c r="J4">
-        <v>1.272736994602419</v>
       </c>
       <c r="K4">
         <v>1.455318617902882</v>
@@ -738,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.305790547276643</v>
+        <v>0.1606490566275596</v>
       </c>
       <c r="D5">
+        <v>1.004130780423058</v>
+      </c>
+      <c r="E5">
+        <v>4.305790547276642</v>
+      </c>
+      <c r="F5">
         <v>0.1606490566275596</v>
-      </c>
-      <c r="E5">
-        <v>1.004130780423058</v>
-      </c>
-      <c r="F5">
-        <v>4.305790547276643</v>
       </c>
       <c r="G5">
         <v>2.902850775003243</v>
@@ -756,13 +768,13 @@
         <v>1.093988416680879</v>
       </c>
       <c r="I5">
+        <v>4.305790547276642</v>
+      </c>
+      <c r="J5">
         <v>1.500996161222442</v>
       </c>
-      <c r="J5">
-        <v>0.1606490566275596</v>
-      </c>
       <c r="K5">
-        <v>4.305790547276643</v>
+        <v>4.305790547276642</v>
       </c>
       <c r="L5">
         <v>1.004130780423058</v>
@@ -783,10 +795,10 @@
         <v>1.82352346144242</v>
       </c>
       <c r="R5">
-        <v>2.444090232900976</v>
+        <v>2.444090232900975</v>
       </c>
       <c r="S5">
-        <v>2.444090232900976</v>
+        <v>2.444090232900975</v>
       </c>
       <c r="T5">
         <v>1.828067622872304</v>
@@ -800,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.990509820253663</v>
+        <v>5.850701618846004</v>
       </c>
       <c r="D6">
+        <v>1.486298645787362</v>
+      </c>
+      <c r="E6">
+        <v>3.990509820253662</v>
+      </c>
+      <c r="F6">
         <v>5.850701618846004</v>
-      </c>
-      <c r="E6">
-        <v>1.486298645787362</v>
-      </c>
-      <c r="F6">
-        <v>3.990509820253663</v>
       </c>
       <c r="G6">
         <v>7.521796555392684</v>
@@ -818,13 +830,13 @@
         <v>0.5495866575375242</v>
       </c>
       <c r="I6">
+        <v>3.990509820253662</v>
+      </c>
+      <c r="J6">
         <v>0.771039236693039</v>
       </c>
-      <c r="J6">
-        <v>5.850701618846004</v>
-      </c>
       <c r="K6">
-        <v>3.990509820253663</v>
+        <v>3.990509820253662</v>
       </c>
       <c r="L6">
         <v>1.486298645787362</v>
@@ -862,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.04019328391483</v>
+      </c>
+      <c r="D7">
+        <v>1.053533190095749</v>
+      </c>
+      <c r="E7">
         <v>1.045104006078424</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1.04019328391483</v>
       </c>
-      <c r="E7">
-        <v>1.053533190095749</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1.010624560522242</v>
+      </c>
+      <c r="H7">
+        <v>1.009145248540605</v>
+      </c>
+      <c r="I7">
         <v>1.045104006078424</v>
       </c>
-      <c r="G7">
-        <v>1.010624560522241</v>
-      </c>
-      <c r="H7">
-        <v>1.009145248540608</v>
-      </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.00919455903098</v>
-      </c>
-      <c r="J7">
-        <v>1.04019328391483</v>
       </c>
       <c r="K7">
         <v>1.045104006078424</v>
@@ -898,7 +910,7 @@
         <v>1.046863237005289</v>
       </c>
       <c r="O7">
-        <v>1.034290574183729</v>
+        <v>1.034290574183728</v>
       </c>
       <c r="P7">
         <v>1.046276826696334</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.113362445632195</v>
+        <v>1.027401498316654</v>
       </c>
       <c r="D8">
-        <v>1.027401498316653</v>
+        <v>1.106270822999049</v>
       </c>
       <c r="E8">
-        <v>1.106270822999039</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="F8">
-        <v>1.113362445632195</v>
+        <v>1.027401498316654</v>
       </c>
       <c r="G8">
-        <v>1.013130123477889</v>
+        <v>1.013130123477887</v>
       </c>
       <c r="H8">
         <v>1.020841389943508</v>
       </c>
       <c r="I8">
+        <v>1.113362445632196</v>
+      </c>
+      <c r="J8">
         <v>1.002626378079932</v>
       </c>
-      <c r="J8">
-        <v>1.027401498316653</v>
-      </c>
       <c r="K8">
-        <v>1.113362445632195</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="L8">
-        <v>1.106270822999039</v>
+        <v>1.106270822999049</v>
       </c>
       <c r="M8">
-        <v>1.066836160657846</v>
+        <v>1.066836160657851</v>
       </c>
       <c r="N8">
-        <v>1.066836160657846</v>
+        <v>1.066836160657851</v>
       </c>
       <c r="O8">
-        <v>1.051504570419733</v>
+        <v>1.051504570419737</v>
       </c>
       <c r="P8">
-        <v>1.082344922315962</v>
+        <v>1.082344922315966</v>
       </c>
       <c r="Q8">
-        <v>1.082344922315962</v>
+        <v>1.082344922315966</v>
       </c>
       <c r="R8">
-        <v>1.090099303145021</v>
+        <v>1.090099303145024</v>
       </c>
       <c r="S8">
-        <v>1.090099303145021</v>
+        <v>1.090099303145024</v>
       </c>
       <c r="T8">
-        <v>1.047272109741536</v>
+        <v>1.047272109741538</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9743829826217915</v>
+      </c>
+      <c r="D9">
+        <v>1.074070362225052</v>
+      </c>
+      <c r="E9">
         <v>1.350648745440417</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.9743829826217915</v>
-      </c>
-      <c r="E9">
-        <v>1.074070362225052</v>
-      </c>
-      <c r="F9">
-        <v>1.350648745440417</v>
       </c>
       <c r="G9">
         <v>1.061654068355533</v>
@@ -1004,10 +1016,10 @@
         <v>1.007464458402296</v>
       </c>
       <c r="I9">
-        <v>0.9600455922216716</v>
+        <v>1.350648745440417</v>
       </c>
       <c r="J9">
-        <v>0.9743829826217915</v>
+        <v>0.9600455922216719</v>
       </c>
       <c r="K9">
         <v>1.350648745440417</v>
@@ -1025,10 +1037,10 @@
         <v>1.018639267749713</v>
       </c>
       <c r="P9">
-        <v>1.133034030095754</v>
+        <v>1.133034030095753</v>
       </c>
       <c r="Q9">
-        <v>1.133034030095754</v>
+        <v>1.133034030095753</v>
       </c>
       <c r="R9">
         <v>1.187437708931919</v>
@@ -1048,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9790552688771149</v>
+      </c>
+      <c r="D10">
+        <v>1.38202567691214</v>
+      </c>
+      <c r="E10">
         <v>1.72016666264136</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.9790552688771149</v>
-      </c>
-      <c r="E10">
-        <v>1.38202567691214</v>
-      </c>
-      <c r="F10">
-        <v>1.72016666264136</v>
       </c>
       <c r="G10">
         <v>1.27769069858658</v>
@@ -1066,10 +1078,10 @@
         <v>1.042070324428267</v>
       </c>
       <c r="I10">
+        <v>1.72016666264136</v>
+      </c>
+      <c r="J10">
         <v>1.140663995951151</v>
-      </c>
-      <c r="J10">
-        <v>0.9790552688771149</v>
       </c>
       <c r="K10">
         <v>1.72016666264136</v>
@@ -1110,34 +1122,34 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.2403595378022908</v>
+      </c>
+      <c r="D11">
+        <v>1.915814228467984</v>
+      </c>
+      <c r="E11">
         <v>2.302690373690194</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.2403595378022908</v>
-      </c>
-      <c r="E11">
-        <v>1.915814228467983</v>
-      </c>
-      <c r="F11">
-        <v>2.302690373690194</v>
       </c>
       <c r="G11">
         <v>1.01217303556299</v>
       </c>
       <c r="H11">
-        <v>0.6721192551305831</v>
+        <v>0.6721192551305836</v>
       </c>
       <c r="I11">
-        <v>1.071738085100185</v>
+        <v>2.302690373690194</v>
       </c>
       <c r="J11">
-        <v>0.2403595378022908</v>
+        <v>1.071738085100184</v>
       </c>
       <c r="K11">
         <v>2.302690373690194</v>
       </c>
       <c r="L11">
-        <v>1.915814228467983</v>
+        <v>1.915814228467984</v>
       </c>
       <c r="M11">
         <v>1.078086883135137</v>
@@ -1146,7 +1158,7 @@
         <v>1.078086883135137</v>
       </c>
       <c r="O11">
-        <v>0.9427643404669523</v>
+        <v>0.9427643404669527</v>
       </c>
       <c r="P11">
         <v>1.486288046653489</v>
@@ -1155,10 +1167,10 @@
         <v>1.486288046653489</v>
       </c>
       <c r="R11">
-        <v>1.690388628412666</v>
+        <v>1.690388628412665</v>
       </c>
       <c r="S11">
-        <v>1.690388628412666</v>
+        <v>1.690388628412665</v>
       </c>
       <c r="T11">
         <v>1.202482419292371</v>
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0002877035861823895</v>
+        <v>0.000532298282533667</v>
       </c>
       <c r="D12">
-        <v>0.0005322982825336745</v>
+        <v>1.399240406789604</v>
       </c>
       <c r="E12">
-        <v>1.399240406789605</v>
+        <v>0.0002877035861823883</v>
       </c>
       <c r="F12">
-        <v>0.0002877035861823895</v>
+        <v>0.000532298282533667</v>
       </c>
       <c r="G12">
-        <v>-0.001559141307159514</v>
+        <v>-0.001559141307159513</v>
       </c>
       <c r="H12">
-        <v>2.059291498268633</v>
+        <v>2.059291498268636</v>
       </c>
       <c r="I12">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="J12">
         <v>1.048348205524001</v>
       </c>
-      <c r="J12">
-        <v>0.0005322982825336745</v>
-      </c>
       <c r="K12">
-        <v>0.0002877035861823895</v>
+        <v>0.0002877035861823883</v>
       </c>
       <c r="L12">
-        <v>1.399240406789605</v>
+        <v>1.399240406789604</v>
       </c>
       <c r="M12">
-        <v>0.6998863525360692</v>
+        <v>0.6998863525360688</v>
       </c>
       <c r="N12">
-        <v>0.6998863525360692</v>
+        <v>0.6998863525360688</v>
       </c>
       <c r="O12">
-        <v>1.15302140111359</v>
+        <v>1.153021401113591</v>
       </c>
       <c r="P12">
-        <v>0.4666868028861069</v>
+        <v>0.4666868028861066</v>
       </c>
       <c r="Q12">
-        <v>0.4666868028861069</v>
+        <v>0.4666868028861066</v>
       </c>
       <c r="R12">
-        <v>0.3500870280611258</v>
+        <v>0.3500870280611256</v>
       </c>
       <c r="S12">
-        <v>0.3500870280611258</v>
+        <v>0.3500870280611256</v>
       </c>
       <c r="T12">
-        <v>0.7510234951906324</v>
+        <v>0.7510234951906328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.10263842090298</v>
+        <v>4.266821309831473</v>
       </c>
       <c r="D13">
-        <v>4.266821309831471</v>
+        <v>0.02000177124010596</v>
       </c>
       <c r="E13">
-        <v>0.02000177124010596</v>
+        <v>3.102638420902982</v>
       </c>
       <c r="F13">
-        <v>3.10263842090298</v>
+        <v>4.266821309831473</v>
       </c>
       <c r="G13">
-        <v>3.155339425965614</v>
+        <v>3.155339425965618</v>
       </c>
       <c r="H13">
-        <v>1.472654676476382</v>
+        <v>1.472654676476381</v>
       </c>
       <c r="I13">
-        <v>0.6719815952770194</v>
+        <v>3.102638420902982</v>
       </c>
       <c r="J13">
-        <v>4.266821309831471</v>
+        <v>0.6719815952770193</v>
       </c>
       <c r="K13">
-        <v>3.10263842090298</v>
+        <v>3.102638420902982</v>
       </c>
       <c r="L13">
         <v>0.02000177124010596</v>
@@ -1273,19 +1285,19 @@
         <v>1.919825919182653</v>
       </c>
       <c r="P13">
-        <v>2.463153833991519</v>
+        <v>2.46315383399152</v>
       </c>
       <c r="Q13">
-        <v>2.463153833991519</v>
+        <v>2.46315383399152</v>
       </c>
       <c r="R13">
-        <v>2.623024980719384</v>
+        <v>2.623024980719386</v>
       </c>
       <c r="S13">
-        <v>2.623024980719384</v>
+        <v>2.623024980719386</v>
       </c>
       <c r="T13">
-        <v>2.114906199948929</v>
+        <v>2.11490619994893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1366769654221979</v>
+        <v>-0.004538901905293547</v>
       </c>
       <c r="D14">
-        <v>-0.004538901905293548</v>
+        <v>0.2444052323227772</v>
       </c>
       <c r="E14">
-        <v>0.2444052323227779</v>
+        <v>0.1366769654221978</v>
       </c>
       <c r="F14">
-        <v>0.1366769654221979</v>
+        <v>-0.004538901905293547</v>
       </c>
       <c r="G14">
-        <v>2.807453434814119</v>
+        <v>2.807453434814114</v>
       </c>
       <c r="H14">
-        <v>0.2774913946404211</v>
+        <v>0.277491394640421</v>
       </c>
       <c r="I14">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="J14">
         <v>1.817098418793493</v>
       </c>
-      <c r="J14">
-        <v>-0.004538901905293548</v>
-      </c>
       <c r="K14">
-        <v>0.1366769654221979</v>
+        <v>0.1366769654221978</v>
       </c>
       <c r="L14">
-        <v>0.2444052323227779</v>
+        <v>0.2444052323227772</v>
       </c>
       <c r="M14">
-        <v>0.1199331652087422</v>
+        <v>0.1199331652087418</v>
       </c>
       <c r="N14">
-        <v>0.1199331652087422</v>
+        <v>0.1199331652087418</v>
       </c>
       <c r="O14">
-        <v>0.1724525750193018</v>
+        <v>0.1724525750193016</v>
       </c>
       <c r="P14">
-        <v>0.1255144319465608</v>
+        <v>0.1255144319465605</v>
       </c>
       <c r="Q14">
-        <v>0.1255144319465608</v>
+        <v>0.1255144319465605</v>
       </c>
       <c r="R14">
-        <v>0.12830506531547</v>
+        <v>0.1283050653154698</v>
       </c>
       <c r="S14">
-        <v>0.12830506531547</v>
+        <v>0.1283050653154698</v>
       </c>
       <c r="T14">
-        <v>0.8797644240146192</v>
+        <v>0.8797644240146182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,55 +1370,55 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.08870295097191688</v>
+        <v>0.001693800555954467</v>
       </c>
       <c r="D15">
-        <v>0.001693800555954466</v>
+        <v>0.03517713594029284</v>
       </c>
       <c r="E15">
-        <v>0.03517713594029286</v>
+        <v>0.08870295097191687</v>
       </c>
       <c r="F15">
-        <v>0.08870295097191688</v>
+        <v>0.001693800555954467</v>
       </c>
       <c r="G15">
-        <v>0.0009285292887252528</v>
+        <v>0.0009285292887252522</v>
       </c>
       <c r="H15">
         <v>0.1736462014875939</v>
       </c>
       <c r="I15">
-        <v>0.8454591965976241</v>
+        <v>0.08870295097191687</v>
       </c>
       <c r="J15">
-        <v>0.001693800555954466</v>
+        <v>0.8454591965976243</v>
       </c>
       <c r="K15">
-        <v>0.08870295097191688</v>
+        <v>0.08870295097191687</v>
       </c>
       <c r="L15">
-        <v>0.03517713594029286</v>
+        <v>0.03517713594029284</v>
       </c>
       <c r="M15">
-        <v>0.01843546824812366</v>
+        <v>0.01843546824812365</v>
       </c>
       <c r="N15">
-        <v>0.01843546824812366</v>
+        <v>0.01843546824812365</v>
       </c>
       <c r="O15">
         <v>0.07017237932794707</v>
       </c>
       <c r="P15">
-        <v>0.04185796248938808</v>
+        <v>0.04185796248938806</v>
       </c>
       <c r="Q15">
-        <v>0.04185796248938808</v>
+        <v>0.04185796248938806</v>
       </c>
       <c r="R15">
-        <v>0.05356920961002028</v>
+        <v>0.05356920961002026</v>
       </c>
       <c r="S15">
-        <v>0.05356920961002028</v>
+        <v>0.05356920961002026</v>
       </c>
       <c r="T15">
         <v>0.1909346358070179</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.023338639311004</v>
+        <v>0.2169999617507327</v>
       </c>
       <c r="D16">
-        <v>1.049947903655871</v>
+        <v>0.6738429273350737</v>
       </c>
       <c r="E16">
-        <v>1.05879427480686</v>
+        <v>3.086449098591103</v>
       </c>
       <c r="F16">
-        <v>1.023338639311004</v>
+        <v>0.2169999617507327</v>
       </c>
       <c r="G16">
-        <v>1.04609680792931</v>
+        <v>4.518377135473041</v>
       </c>
       <c r="H16">
-        <v>1.020706845841391</v>
+        <v>0.2213948455065038</v>
       </c>
       <c r="I16">
-        <v>1.004812452600996</v>
+        <v>3.086449098591103</v>
       </c>
       <c r="J16">
-        <v>1.049947903655871</v>
+        <v>1.554742360421597</v>
       </c>
       <c r="K16">
-        <v>1.023338639311004</v>
+        <v>3.086449098591103</v>
       </c>
       <c r="L16">
-        <v>1.05879427480686</v>
+        <v>0.6738429273350737</v>
       </c>
       <c r="M16">
-        <v>1.054371089231366</v>
+        <v>0.4454214445429032</v>
       </c>
       <c r="N16">
-        <v>1.054371089231366</v>
+        <v>0.4454214445429032</v>
       </c>
       <c r="O16">
-        <v>1.043149674768041</v>
+        <v>0.37074591153077</v>
       </c>
       <c r="P16">
-        <v>1.044026939257912</v>
+        <v>1.325763995892303</v>
       </c>
       <c r="Q16">
-        <v>1.044026939257912</v>
+        <v>1.325763995892303</v>
       </c>
       <c r="R16">
-        <v>1.038854864271185</v>
+        <v>1.765935271567003</v>
       </c>
       <c r="S16">
-        <v>1.038854864271185</v>
+        <v>1.765935271567003</v>
       </c>
       <c r="T16">
-        <v>1.033949487357572</v>
+        <v>1.711967721513008</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.160082384718444</v>
+        <v>0.4334329456234194</v>
       </c>
       <c r="D17">
-        <v>1.103769990548851</v>
+        <v>1.378615495549814</v>
       </c>
       <c r="E17">
-        <v>1.068150624251218</v>
+        <v>2.404300915916951</v>
       </c>
       <c r="F17">
-        <v>1.160082384718444</v>
+        <v>0.4334329456234194</v>
       </c>
       <c r="G17">
-        <v>0.8667061198083735</v>
+        <v>3.355309992601966</v>
       </c>
       <c r="H17">
-        <v>1.029643708243101</v>
+        <v>0.4409912827529335</v>
       </c>
       <c r="I17">
-        <v>1.019598478426554</v>
+        <v>2.404300915916951</v>
       </c>
       <c r="J17">
-        <v>1.103769990548851</v>
+        <v>1.384162154382678</v>
       </c>
       <c r="K17">
-        <v>1.160082384718444</v>
+        <v>2.404300915916951</v>
       </c>
       <c r="L17">
-        <v>1.068150624251218</v>
+        <v>1.378615495549814</v>
       </c>
       <c r="M17">
-        <v>1.085960307400034</v>
+        <v>0.9060242205866166</v>
       </c>
       <c r="N17">
-        <v>1.085960307400034</v>
+        <v>0.9060242205866166</v>
       </c>
       <c r="O17">
-        <v>1.067188107681057</v>
+        <v>0.7510132413087223</v>
       </c>
       <c r="P17">
-        <v>1.110667666506171</v>
+        <v>1.405449785696728</v>
       </c>
       <c r="Q17">
-        <v>1.110667666506171</v>
+        <v>1.405449785696728</v>
       </c>
       <c r="R17">
-        <v>1.123021346059239</v>
+        <v>1.655162568251784</v>
       </c>
       <c r="S17">
-        <v>1.123021346059239</v>
+        <v>1.655162568251784</v>
       </c>
       <c r="T17">
-        <v>1.04132521766609</v>
+        <v>1.566135464471294</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.659583141224379</v>
+        <v>1.203970723540198</v>
       </c>
       <c r="D18">
-        <v>1.618103377111101</v>
+        <v>2.916040003635901</v>
       </c>
       <c r="E18">
-        <v>1.037934399144972</v>
+        <v>1.413183871292814</v>
       </c>
       <c r="F18">
-        <v>2.659583141224379</v>
+        <v>1.203970723540198</v>
       </c>
       <c r="G18">
-        <v>0.9743983017478026</v>
+        <v>1.238510326307232</v>
       </c>
       <c r="H18">
-        <v>0.9319468683073706</v>
+        <v>0.9584695897176232</v>
       </c>
       <c r="I18">
-        <v>0.994008454127738</v>
+        <v>1.413183871292814</v>
       </c>
       <c r="J18">
-        <v>1.618103377111101</v>
+        <v>1.235463961491328</v>
       </c>
       <c r="K18">
-        <v>2.659583141224379</v>
+        <v>1.413183871292814</v>
       </c>
       <c r="L18">
-        <v>1.037934399144972</v>
+        <v>2.916040003635901</v>
       </c>
       <c r="M18">
-        <v>1.328018888128037</v>
+        <v>2.060005363588049</v>
       </c>
       <c r="N18">
-        <v>1.328018888128037</v>
+        <v>2.060005363588049</v>
       </c>
       <c r="O18">
-        <v>1.195994881521148</v>
+        <v>1.692826772297907</v>
       </c>
       <c r="P18">
-        <v>1.771873639160151</v>
+        <v>1.844398199489638</v>
       </c>
       <c r="Q18">
-        <v>1.771873639160151</v>
+        <v>1.844398199489638</v>
       </c>
       <c r="R18">
-        <v>1.993801014676208</v>
+        <v>1.736594617440432</v>
       </c>
       <c r="S18">
-        <v>1.993801014676208</v>
+        <v>1.736594617440432</v>
       </c>
       <c r="T18">
-        <v>1.369329090277227</v>
+        <v>1.494273079330849</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.017756255500315</v>
+        <v>0.9368900452777595</v>
       </c>
       <c r="D19">
+        <v>3.921933866856945</v>
+      </c>
+      <c r="E19">
+        <v>1.395411340718356</v>
+      </c>
+      <c r="F19">
+        <v>0.9368900452777595</v>
+      </c>
+      <c r="G19">
+        <v>0.793536661439479</v>
+      </c>
+      <c r="H19">
+        <v>1.464133624518319</v>
+      </c>
+      <c r="I19">
+        <v>1.395411340718356</v>
+      </c>
+      <c r="J19">
+        <v>1.305074265995709</v>
+      </c>
+      <c r="K19">
+        <v>1.395411340718356</v>
+      </c>
+      <c r="L19">
+        <v>3.921933866856945</v>
+      </c>
+      <c r="M19">
+        <v>2.429411956067352</v>
+      </c>
+      <c r="N19">
+        <v>2.429411956067352</v>
+      </c>
+      <c r="O19">
+        <v>2.107652512217674</v>
+      </c>
+      <c r="P19">
+        <v>2.084745084284353</v>
+      </c>
+      <c r="Q19">
+        <v>2.084745084284354</v>
+      </c>
+      <c r="R19">
+        <v>1.912411648392854</v>
+      </c>
+      <c r="S19">
+        <v>1.912411648392854</v>
+      </c>
+      <c r="T19">
+        <v>1.636163300801095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.049947903655869</v>
+      </c>
+      <c r="D20">
+        <v>1.058794274806861</v>
+      </c>
+      <c r="E20">
+        <v>1.023338639311004</v>
+      </c>
+      <c r="F20">
+        <v>1.049947903655869</v>
+      </c>
+      <c r="G20">
+        <v>1.046096807929313</v>
+      </c>
+      <c r="H20">
+        <v>1.020706845841391</v>
+      </c>
+      <c r="I20">
+        <v>1.023338639311004</v>
+      </c>
+      <c r="J20">
+        <v>1.004812452600998</v>
+      </c>
+      <c r="K20">
+        <v>1.023338639311004</v>
+      </c>
+      <c r="L20">
+        <v>1.058794274806861</v>
+      </c>
+      <c r="M20">
+        <v>1.054371089231365</v>
+      </c>
+      <c r="N20">
+        <v>1.054371089231365</v>
+      </c>
+      <c r="O20">
+        <v>1.04314967476804</v>
+      </c>
+      <c r="P20">
+        <v>1.044026939257912</v>
+      </c>
+      <c r="Q20">
+        <v>1.044026939257912</v>
+      </c>
+      <c r="R20">
+        <v>1.038854864271185</v>
+      </c>
+      <c r="S20">
+        <v>1.038854864271185</v>
+      </c>
+      <c r="T20">
+        <v>1.033949487357573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.103769990548849</v>
+      </c>
+      <c r="D21">
+        <v>1.068150624251218</v>
+      </c>
+      <c r="E21">
+        <v>1.160082384718444</v>
+      </c>
+      <c r="F21">
+        <v>1.103769990548849</v>
+      </c>
+      <c r="G21">
+        <v>0.8667061198083762</v>
+      </c>
+      <c r="H21">
+        <v>1.0296437082431</v>
+      </c>
+      <c r="I21">
+        <v>1.160082384718444</v>
+      </c>
+      <c r="J21">
+        <v>1.019598478426555</v>
+      </c>
+      <c r="K21">
+        <v>1.160082384718444</v>
+      </c>
+      <c r="L21">
+        <v>1.068150624251218</v>
+      </c>
+      <c r="M21">
+        <v>1.085960307400033</v>
+      </c>
+      <c r="N21">
+        <v>1.085960307400033</v>
+      </c>
+      <c r="O21">
+        <v>1.067188107681056</v>
+      </c>
+      <c r="P21">
+        <v>1.110667666506171</v>
+      </c>
+      <c r="Q21">
+        <v>1.110667666506171</v>
+      </c>
+      <c r="R21">
+        <v>1.123021346059239</v>
+      </c>
+      <c r="S21">
+        <v>1.123021346059239</v>
+      </c>
+      <c r="T21">
+        <v>1.041325217666091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.618103377111098</v>
+      </c>
+      <c r="D22">
+        <v>1.037934399144971</v>
+      </c>
+      <c r="E22">
+        <v>2.659583141224379</v>
+      </c>
+      <c r="F22">
+        <v>1.618103377111098</v>
+      </c>
+      <c r="G22">
+        <v>0.9743983017478099</v>
+      </c>
+      <c r="H22">
+        <v>0.9319468683073685</v>
+      </c>
+      <c r="I22">
+        <v>2.659583141224379</v>
+      </c>
+      <c r="J22">
+        <v>0.9940084541277376</v>
+      </c>
+      <c r="K22">
+        <v>2.659583141224379</v>
+      </c>
+      <c r="L22">
+        <v>1.037934399144971</v>
+      </c>
+      <c r="M22">
+        <v>1.328018888128035</v>
+      </c>
+      <c r="N22">
+        <v>1.328018888128035</v>
+      </c>
+      <c r="O22">
+        <v>1.195994881521146</v>
+      </c>
+      <c r="P22">
+        <v>1.771873639160149</v>
+      </c>
+      <c r="Q22">
+        <v>1.771873639160149</v>
+      </c>
+      <c r="R22">
+        <v>1.993801014676207</v>
+      </c>
+      <c r="S22">
+        <v>1.993801014676207</v>
+      </c>
+      <c r="T22">
+        <v>1.369329090277227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.4478881063598256</v>
       </c>
-      <c r="E19">
+      <c r="D23">
         <v>1.491000122320962</v>
       </c>
-      <c r="F19">
-        <v>3.017756255500315</v>
-      </c>
-      <c r="G19">
+      <c r="E23">
+        <v>3.017756255500314</v>
+      </c>
+      <c r="F23">
+        <v>0.4478881063598256</v>
+      </c>
+      <c r="G23">
         <v>0.7620836300961501</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>0.7364662864100542</v>
       </c>
-      <c r="I19">
+      <c r="I23">
+        <v>3.017756255500314</v>
+      </c>
+      <c r="J23">
         <v>1.043683420542332</v>
       </c>
-      <c r="J19">
-        <v>0.4478881063598256</v>
-      </c>
-      <c r="K19">
-        <v>3.017756255500315</v>
-      </c>
-      <c r="L19">
+      <c r="K23">
+        <v>3.017756255500314</v>
+      </c>
+      <c r="L23">
         <v>1.491000122320962</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9694441143403938</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9694441143403938</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.8917848383636139</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.652214828060367</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.652214828060367</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.993600184920354</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.993600184920354</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.24981297020494</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.020151689824415</v>
+        <v>0.8149964118701495</v>
       </c>
       <c r="D3">
-        <v>1.062990563620398</v>
+        <v>4.168011907277007</v>
       </c>
       <c r="E3">
-        <v>1.192692077138352</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="F3">
-        <v>1.020151689824415</v>
+        <v>0.8149964118701495</v>
       </c>
       <c r="G3">
-        <v>1.257249356214491</v>
+        <v>1.096121626326326</v>
       </c>
       <c r="H3">
-        <v>0.9733727913175294</v>
+        <v>0.8281591837986223</v>
       </c>
       <c r="I3">
-        <v>1.192692077138352</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="J3">
-        <v>1.041736460928056</v>
+        <v>1.091573070819084</v>
       </c>
       <c r="K3">
-        <v>1.192692077138352</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="L3">
-        <v>1.062990563620398</v>
+        <v>4.168011907277007</v>
       </c>
       <c r="M3">
-        <v>1.041571126722407</v>
+        <v>2.491504159573578</v>
       </c>
       <c r="N3">
-        <v>1.041571126722407</v>
+        <v>2.491504159573578</v>
       </c>
       <c r="O3">
-        <v>1.018838348254114</v>
+        <v>1.93705583431526</v>
       </c>
       <c r="P3">
-        <v>1.091944776861055</v>
+        <v>2.0427529135951</v>
       </c>
       <c r="Q3">
-        <v>1.091944776861055</v>
+        <v>2.0427529135951</v>
       </c>
       <c r="R3">
-        <v>1.117131601930379</v>
+        <v>1.81837729060586</v>
       </c>
       <c r="S3">
-        <v>1.117131601930379</v>
+        <v>1.81837729060586</v>
       </c>
       <c r="T3">
-        <v>1.09136548984054</v>
+        <v>1.524018770288222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.272736994602419</v>
+        <v>0.8432091983383136</v>
       </c>
       <c r="D4">
-        <v>1.185461344600689</v>
+        <v>3.410894961538521</v>
       </c>
       <c r="E4">
-        <v>1.455318617902882</v>
+        <v>1.02416481911557</v>
       </c>
       <c r="F4">
-        <v>1.272736994602419</v>
+        <v>0.8432091983383136</v>
       </c>
       <c r="G4">
-        <v>1.510153810359975</v>
+        <v>1.058073197271734</v>
       </c>
       <c r="H4">
-        <v>0.8964547595121962</v>
+        <v>0.8567648146982482</v>
       </c>
       <c r="I4">
-        <v>1.455318617902882</v>
+        <v>1.02416481911557</v>
       </c>
       <c r="J4">
-        <v>1.125997325644179</v>
+        <v>1.069303313954075</v>
       </c>
       <c r="K4">
-        <v>1.455318617902882</v>
+        <v>1.02416481911557</v>
       </c>
       <c r="L4">
-        <v>1.185461344600689</v>
+        <v>3.410894961538521</v>
       </c>
       <c r="M4">
-        <v>1.229099169601554</v>
+        <v>2.127052079938417</v>
       </c>
       <c r="N4">
-        <v>1.229099169601554</v>
+        <v>2.127052079938417</v>
       </c>
       <c r="O4">
-        <v>1.118217699571768</v>
+        <v>1.703622991525028</v>
       </c>
       <c r="P4">
-        <v>1.304505652368664</v>
+        <v>1.759422992997468</v>
       </c>
       <c r="Q4">
-        <v>1.304505652368664</v>
+        <v>1.759422992997468</v>
       </c>
       <c r="R4">
-        <v>1.342208893752218</v>
+        <v>1.575608449526994</v>
       </c>
       <c r="S4">
-        <v>1.342208893752218</v>
+        <v>1.575608449526994</v>
       </c>
       <c r="T4">
-        <v>1.241020475437057</v>
+        <v>1.377068384152744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.1606490566275596</v>
+        <v>0.306391390273493</v>
       </c>
       <c r="D5">
-        <v>1.004130780423058</v>
+        <v>7.545697343611631</v>
       </c>
       <c r="E5">
-        <v>4.305790547276642</v>
+        <v>2.253384425368519</v>
       </c>
       <c r="F5">
-        <v>0.1606490566275596</v>
+        <v>0.306391390273493</v>
       </c>
       <c r="G5">
-        <v>2.902850775003243</v>
+        <v>2.174608248684206</v>
       </c>
       <c r="H5">
-        <v>1.093988416680879</v>
+        <v>0.882012791854932</v>
       </c>
       <c r="I5">
-        <v>4.305790547276642</v>
+        <v>2.253384425368519</v>
       </c>
       <c r="J5">
-        <v>1.500996161222442</v>
+        <v>1.980585459701936</v>
       </c>
       <c r="K5">
-        <v>4.305790547276642</v>
+        <v>2.253384425368519</v>
       </c>
       <c r="L5">
-        <v>1.004130780423058</v>
+        <v>7.545697343611631</v>
       </c>
       <c r="M5">
-        <v>0.582389918525309</v>
+        <v>3.926044366942562</v>
       </c>
       <c r="N5">
-        <v>0.582389918525309</v>
+        <v>3.926044366942562</v>
       </c>
       <c r="O5">
-        <v>0.7529227512438322</v>
+        <v>2.911367175246685</v>
       </c>
       <c r="P5">
-        <v>1.82352346144242</v>
+        <v>3.368491053084548</v>
       </c>
       <c r="Q5">
-        <v>1.82352346144242</v>
+        <v>3.368491053084548</v>
       </c>
       <c r="R5">
-        <v>2.444090232900975</v>
+        <v>3.089714396155541</v>
       </c>
       <c r="S5">
-        <v>2.444090232900975</v>
+        <v>3.089714396155541</v>
       </c>
       <c r="T5">
-        <v>1.828067622872304</v>
+        <v>2.523779943249119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.850701618846004</v>
+        <v>0.06877211627344321</v>
       </c>
       <c r="D6">
-        <v>1.486298645787362</v>
+        <v>10.24750047886024</v>
       </c>
       <c r="E6">
-        <v>3.990509820253662</v>
+        <v>4.94024312977864</v>
       </c>
       <c r="F6">
-        <v>5.850701618846004</v>
+        <v>0.06877211627344321</v>
       </c>
       <c r="G6">
-        <v>7.521796555392684</v>
+        <v>2.228534981549091</v>
       </c>
       <c r="H6">
-        <v>0.5495866575375242</v>
+        <v>0.6616844781056129</v>
       </c>
       <c r="I6">
-        <v>3.990509820253662</v>
+        <v>4.94024312977864</v>
       </c>
       <c r="J6">
-        <v>0.771039236693039</v>
+        <v>0.5966012732065332</v>
       </c>
       <c r="K6">
-        <v>3.990509820253662</v>
+        <v>4.94024312977864</v>
       </c>
       <c r="L6">
-        <v>1.486298645787362</v>
+        <v>10.24750047886024</v>
       </c>
       <c r="M6">
-        <v>3.668500132316683</v>
+        <v>5.158136297566841</v>
       </c>
       <c r="N6">
-        <v>3.668500132316683</v>
+        <v>5.158136297566841</v>
       </c>
       <c r="O6">
-        <v>2.628862307390297</v>
+        <v>3.659319024413099</v>
       </c>
       <c r="P6">
-        <v>3.775836694962342</v>
+        <v>5.085505241637441</v>
       </c>
       <c r="Q6">
-        <v>3.775836694962343</v>
+        <v>5.085505241637441</v>
       </c>
       <c r="R6">
-        <v>3.829504976285173</v>
+        <v>5.049189713672741</v>
       </c>
       <c r="S6">
-        <v>3.829504976285173</v>
+        <v>5.049189713672741</v>
       </c>
       <c r="T6">
-        <v>3.36165542241838</v>
+        <v>3.123889409628927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.04019328391483</v>
+        <v>0.007696036171753418</v>
       </c>
       <c r="D7">
-        <v>1.053533190095749</v>
+        <v>4.222936311733003</v>
       </c>
       <c r="E7">
-        <v>1.045104006078424</v>
+        <v>12.26028421963715</v>
       </c>
       <c r="F7">
-        <v>1.04019328391483</v>
+        <v>0.007696036171753418</v>
       </c>
       <c r="G7">
-        <v>1.010624560522242</v>
+        <v>0.009717733517790917</v>
       </c>
       <c r="H7">
-        <v>1.009145248540605</v>
+        <v>0.001457436817752452</v>
       </c>
       <c r="I7">
-        <v>1.045104006078424</v>
+        <v>12.26028421963715</v>
       </c>
       <c r="J7">
-        <v>1.00919455903098</v>
+        <v>5.776233571327428</v>
       </c>
       <c r="K7">
-        <v>1.045104006078424</v>
+        <v>12.26028421963715</v>
       </c>
       <c r="L7">
-        <v>1.053533190095749</v>
+        <v>4.222936311733003</v>
       </c>
       <c r="M7">
-        <v>1.046863237005289</v>
+        <v>2.115316173952378</v>
       </c>
       <c r="N7">
-        <v>1.046863237005289</v>
+        <v>2.115316173952378</v>
       </c>
       <c r="O7">
-        <v>1.034290574183728</v>
+        <v>1.410696594907503</v>
       </c>
       <c r="P7">
-        <v>1.046276826696334</v>
+        <v>5.496972189180635</v>
       </c>
       <c r="Q7">
-        <v>1.046276826696334</v>
+        <v>5.496972189180634</v>
       </c>
       <c r="R7">
-        <v>1.045983621541857</v>
+        <v>7.187800196794763</v>
       </c>
       <c r="S7">
-        <v>1.045983621541857</v>
+        <v>7.187800196794763</v>
       </c>
       <c r="T7">
-        <v>1.027965808030472</v>
+        <v>3.713054218200812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.027401498316654</v>
+        <v>0.007663386963217333</v>
       </c>
       <c r="D8">
-        <v>1.106270822999049</v>
+        <v>4.321598346512828</v>
       </c>
       <c r="E8">
-        <v>1.113362445632196</v>
+        <v>12.41097219008164</v>
       </c>
       <c r="F8">
-        <v>1.027401498316654</v>
+        <v>0.007663386963217333</v>
       </c>
       <c r="G8">
-        <v>1.013130123477887</v>
+        <v>0.009664870607773915</v>
       </c>
       <c r="H8">
-        <v>1.020841389943508</v>
+        <v>0.001455185867248226</v>
       </c>
       <c r="I8">
-        <v>1.113362445632196</v>
+        <v>12.41097219008164</v>
       </c>
       <c r="J8">
-        <v>1.002626378079932</v>
+        <v>5.736036285514257</v>
       </c>
       <c r="K8">
-        <v>1.113362445632196</v>
+        <v>12.41097219008164</v>
       </c>
       <c r="L8">
-        <v>1.106270822999049</v>
+        <v>4.321598346512828</v>
       </c>
       <c r="M8">
-        <v>1.066836160657851</v>
+        <v>2.164630866738023</v>
       </c>
       <c r="N8">
-        <v>1.066836160657851</v>
+        <v>2.164630866738023</v>
       </c>
       <c r="O8">
-        <v>1.051504570419737</v>
+        <v>1.443572306447764</v>
       </c>
       <c r="P8">
-        <v>1.082344922315966</v>
+        <v>5.58007797451923</v>
       </c>
       <c r="Q8">
-        <v>1.082344922315966</v>
+        <v>5.58007797451923</v>
       </c>
       <c r="R8">
-        <v>1.090099303145024</v>
+        <v>7.287801528409833</v>
       </c>
       <c r="S8">
-        <v>1.090099303145024</v>
+        <v>7.287801528409833</v>
       </c>
       <c r="T8">
-        <v>1.047272109741538</v>
+        <v>3.747898377591161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9743829826217915</v>
+        <v>0.007627609096205284</v>
       </c>
       <c r="D9">
-        <v>1.074070362225052</v>
+        <v>4.534746343315043</v>
       </c>
       <c r="E9">
-        <v>1.350648745440417</v>
+        <v>12.38489284217238</v>
       </c>
       <c r="F9">
-        <v>0.9743829826217915</v>
+        <v>0.007627609096205284</v>
       </c>
       <c r="G9">
-        <v>1.061654068355533</v>
+        <v>0.009563506856667313</v>
       </c>
       <c r="H9">
-        <v>1.007464458402296</v>
+        <v>0.001466488143284098</v>
       </c>
       <c r="I9">
-        <v>1.350648745440417</v>
+        <v>12.38489284217238</v>
       </c>
       <c r="J9">
-        <v>0.9600455922216719</v>
+        <v>5.701401852063598</v>
       </c>
       <c r="K9">
-        <v>1.350648745440417</v>
+        <v>12.38489284217238</v>
       </c>
       <c r="L9">
-        <v>1.074070362225052</v>
+        <v>4.534746343315043</v>
       </c>
       <c r="M9">
-        <v>1.024226672423422</v>
+        <v>2.271186976205624</v>
       </c>
       <c r="N9">
-        <v>1.024226672423422</v>
+        <v>2.271186976205624</v>
       </c>
       <c r="O9">
-        <v>1.018639267749713</v>
+        <v>1.514613480184844</v>
       </c>
       <c r="P9">
-        <v>1.133034030095753</v>
+        <v>5.642422264861209</v>
       </c>
       <c r="Q9">
-        <v>1.133034030095753</v>
+        <v>5.642422264861209</v>
       </c>
       <c r="R9">
-        <v>1.187437708931919</v>
+        <v>7.328039909189002</v>
       </c>
       <c r="S9">
-        <v>1.187437708931919</v>
+        <v>7.328039909189002</v>
       </c>
       <c r="T9">
-        <v>1.07137770154446</v>
+        <v>3.773283106941196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9790552688771149</v>
+        <v>0.007494901145431766</v>
       </c>
       <c r="D10">
-        <v>1.38202567691214</v>
+        <v>4.922321431974574</v>
       </c>
       <c r="E10">
-        <v>1.72016666264136</v>
+        <v>13.28117951742121</v>
       </c>
       <c r="F10">
-        <v>0.9790552688771149</v>
+        <v>0.007494901145431766</v>
       </c>
       <c r="G10">
-        <v>1.27769069858658</v>
+        <v>0.009369645550346454</v>
       </c>
       <c r="H10">
-        <v>1.042070324428267</v>
+        <v>0.001462993282224575</v>
       </c>
       <c r="I10">
-        <v>1.72016666264136</v>
+        <v>13.28117951742121</v>
       </c>
       <c r="J10">
-        <v>1.140663995951151</v>
+        <v>5.563301148498706</v>
       </c>
       <c r="K10">
-        <v>1.72016666264136</v>
+        <v>13.28117951742121</v>
       </c>
       <c r="L10">
-        <v>1.38202567691214</v>
+        <v>4.922321431974574</v>
       </c>
       <c r="M10">
-        <v>1.180540472894627</v>
+        <v>2.464908166560003</v>
       </c>
       <c r="N10">
-        <v>1.180540472894627</v>
+        <v>2.464908166560003</v>
       </c>
       <c r="O10">
-        <v>1.134383756739174</v>
+        <v>1.64375977546741</v>
       </c>
       <c r="P10">
-        <v>1.360415869476872</v>
+        <v>6.070331950180406</v>
       </c>
       <c r="Q10">
-        <v>1.360415869476872</v>
+        <v>6.070331950180406</v>
       </c>
       <c r="R10">
-        <v>1.450353567767994</v>
+        <v>7.873043841990607</v>
       </c>
       <c r="S10">
-        <v>1.450353567767994</v>
+        <v>7.873043841990607</v>
       </c>
       <c r="T10">
-        <v>1.256945437899436</v>
+        <v>3.964188272978749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.2403595378022908</v>
+        <v>0.9794125352516312</v>
       </c>
       <c r="D11">
-        <v>1.915814228467984</v>
+        <v>1.011044978143908</v>
       </c>
       <c r="E11">
-        <v>2.302690373690194</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="F11">
-        <v>0.2403595378022908</v>
+        <v>0.9794125352516312</v>
       </c>
       <c r="G11">
-        <v>1.01217303556299</v>
+        <v>1.193326523906265</v>
       </c>
       <c r="H11">
-        <v>0.6721192551305836</v>
+        <v>0.977685825773113</v>
       </c>
       <c r="I11">
-        <v>2.302690373690194</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="J11">
-        <v>1.071738085100184</v>
+        <v>1.062605731105803</v>
       </c>
       <c r="K11">
-        <v>2.302690373690194</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="L11">
-        <v>1.915814228467984</v>
+        <v>1.011044978143908</v>
       </c>
       <c r="M11">
-        <v>1.078086883135137</v>
+        <v>0.9952287566977698</v>
       </c>
       <c r="N11">
-        <v>1.078086883135137</v>
+        <v>0.9952287566977698</v>
       </c>
       <c r="O11">
-        <v>0.9427643404669527</v>
+        <v>0.9893811130562176</v>
       </c>
       <c r="P11">
-        <v>1.486288046653489</v>
+        <v>1.05299995856734</v>
       </c>
       <c r="Q11">
-        <v>1.486288046653489</v>
+        <v>1.05299995856734</v>
       </c>
       <c r="R11">
-        <v>1.690388628412665</v>
+        <v>1.081885559502125</v>
       </c>
       <c r="S11">
-        <v>1.690388628412665</v>
+        <v>1.081885559502125</v>
       </c>
       <c r="T11">
-        <v>1.202482419292371</v>
+        <v>1.0654363260812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.000532298282533667</v>
+        <v>1.020192692296672</v>
       </c>
       <c r="D12">
-        <v>1.399240406789604</v>
+        <v>1.042426469492788</v>
       </c>
       <c r="E12">
-        <v>0.0002877035861823883</v>
+        <v>1.092642034022473</v>
       </c>
       <c r="F12">
-        <v>0.000532298282533667</v>
+        <v>1.020192692296672</v>
       </c>
       <c r="G12">
-        <v>-0.001559141307159513</v>
+        <v>1.105841840701851</v>
       </c>
       <c r="H12">
-        <v>2.059291498268636</v>
+        <v>0.9869920777068165</v>
       </c>
       <c r="I12">
-        <v>0.0002877035861823883</v>
+        <v>1.092642034022473</v>
       </c>
       <c r="J12">
-        <v>1.048348205524001</v>
+        <v>1.059482794910685</v>
       </c>
       <c r="K12">
-        <v>0.0002877035861823883</v>
+        <v>1.092642034022473</v>
       </c>
       <c r="L12">
-        <v>1.399240406789604</v>
+        <v>1.042426469492788</v>
       </c>
       <c r="M12">
-        <v>0.6998863525360688</v>
+        <v>1.03130958089473</v>
       </c>
       <c r="N12">
-        <v>0.6998863525360688</v>
+        <v>1.03130958089473</v>
       </c>
       <c r="O12">
-        <v>1.153021401113591</v>
+        <v>1.016537079832092</v>
       </c>
       <c r="P12">
-        <v>0.4666868028861066</v>
+        <v>1.051753731937311</v>
       </c>
       <c r="Q12">
-        <v>0.4666868028861066</v>
+        <v>1.051753731937311</v>
       </c>
       <c r="R12">
-        <v>0.3500870280611256</v>
+        <v>1.061975807458602</v>
       </c>
       <c r="S12">
-        <v>0.3500870280611256</v>
+        <v>1.061975807458602</v>
       </c>
       <c r="T12">
-        <v>0.7510234951906328</v>
+        <v>1.051262984855214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.266821309831473</v>
+        <v>0.2667733352628539</v>
       </c>
       <c r="D13">
-        <v>0.02000177124010596</v>
+        <v>1.585727350160403</v>
       </c>
       <c r="E13">
-        <v>3.102638420902982</v>
+        <v>2.339222569957177</v>
       </c>
       <c r="F13">
-        <v>4.266821309831473</v>
+        <v>0.2667733352628539</v>
       </c>
       <c r="G13">
-        <v>3.155339425965618</v>
+        <v>2.923804880732052</v>
       </c>
       <c r="H13">
-        <v>1.472654676476381</v>
+        <v>1.001823551838922</v>
       </c>
       <c r="I13">
-        <v>3.102638420902982</v>
+        <v>2.339222569957177</v>
       </c>
       <c r="J13">
-        <v>0.6719815952770193</v>
+        <v>2.134128433463706</v>
       </c>
       <c r="K13">
-        <v>3.102638420902982</v>
+        <v>2.339222569957177</v>
       </c>
       <c r="L13">
-        <v>0.02000177124010596</v>
+        <v>1.585727350160403</v>
       </c>
       <c r="M13">
-        <v>2.143411540535789</v>
+        <v>0.9262503427116285</v>
       </c>
       <c r="N13">
-        <v>2.143411540535789</v>
+        <v>0.9262503427116285</v>
       </c>
       <c r="O13">
-        <v>1.919825919182653</v>
+        <v>0.9514414124207266</v>
       </c>
       <c r="P13">
-        <v>2.46315383399152</v>
+        <v>1.397241085126812</v>
       </c>
       <c r="Q13">
-        <v>2.46315383399152</v>
+        <v>1.397241085126812</v>
       </c>
       <c r="R13">
-        <v>2.623024980719386</v>
+        <v>1.632736456334403</v>
       </c>
       <c r="S13">
-        <v>2.623024980719386</v>
+        <v>1.632736456334403</v>
       </c>
       <c r="T13">
-        <v>2.11490619994893</v>
+        <v>1.708580020235853</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.004538901905293547</v>
+        <v>0.1416768522043257</v>
       </c>
       <c r="D14">
-        <v>0.2444052323227772</v>
+        <v>1.659096267757719</v>
       </c>
       <c r="E14">
-        <v>0.1366769654221978</v>
+        <v>5.212199253667217</v>
       </c>
       <c r="F14">
-        <v>-0.004538901905293547</v>
+        <v>0.1416768522043257</v>
       </c>
       <c r="G14">
-        <v>2.807453434814114</v>
+        <v>4.367823954880539</v>
       </c>
       <c r="H14">
-        <v>0.277491394640421</v>
+        <v>0.9932872005343324</v>
       </c>
       <c r="I14">
-        <v>0.1366769654221978</v>
+        <v>5.212199253667217</v>
       </c>
       <c r="J14">
-        <v>1.817098418793493</v>
+        <v>0.5531523803652272</v>
       </c>
       <c r="K14">
-        <v>0.1366769654221978</v>
+        <v>5.212199253667217</v>
       </c>
       <c r="L14">
-        <v>0.2444052323227772</v>
+        <v>1.659096267757719</v>
       </c>
       <c r="M14">
-        <v>0.1199331652087418</v>
+        <v>0.9003865599810225</v>
       </c>
       <c r="N14">
-        <v>0.1199331652087418</v>
+        <v>0.9003865599810225</v>
       </c>
       <c r="O14">
-        <v>0.1724525750193016</v>
+        <v>0.9313534401654592</v>
       </c>
       <c r="P14">
-        <v>0.1255144319465605</v>
+        <v>2.337657457876421</v>
       </c>
       <c r="Q14">
-        <v>0.1255144319465605</v>
+        <v>2.33765745787642</v>
       </c>
       <c r="R14">
-        <v>0.1283050653154698</v>
+        <v>3.05629290682412</v>
       </c>
       <c r="S14">
-        <v>0.1283050653154698</v>
+        <v>3.05629290682412</v>
       </c>
       <c r="T14">
-        <v>0.8797644240146182</v>
+        <v>2.154539318234893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.001693800555954467</v>
+        <v>1.020151689824415</v>
       </c>
       <c r="D15">
-        <v>0.03517713594029284</v>
+        <v>1.062990563620398</v>
       </c>
       <c r="E15">
-        <v>0.08870295097191687</v>
+        <v>1.192692077138352</v>
       </c>
       <c r="F15">
-        <v>0.001693800555954467</v>
+        <v>1.020151689824415</v>
       </c>
       <c r="G15">
-        <v>0.0009285292887252522</v>
+        <v>1.257249356214491</v>
       </c>
       <c r="H15">
-        <v>0.1736462014875939</v>
+        <v>0.9733727913175294</v>
       </c>
       <c r="I15">
-        <v>0.08870295097191687</v>
+        <v>1.192692077138352</v>
       </c>
       <c r="J15">
-        <v>0.8454591965976243</v>
+        <v>1.041736460928056</v>
       </c>
       <c r="K15">
-        <v>0.08870295097191687</v>
+        <v>1.192692077138352</v>
       </c>
       <c r="L15">
-        <v>0.03517713594029284</v>
+        <v>1.062990563620398</v>
       </c>
       <c r="M15">
-        <v>0.01843546824812365</v>
+        <v>1.041571126722407</v>
       </c>
       <c r="N15">
-        <v>0.01843546824812365</v>
+        <v>1.041571126722407</v>
       </c>
       <c r="O15">
-        <v>0.07017237932794707</v>
+        <v>1.018838348254114</v>
       </c>
       <c r="P15">
-        <v>0.04185796248938806</v>
+        <v>1.091944776861055</v>
       </c>
       <c r="Q15">
-        <v>0.04185796248938806</v>
+        <v>1.091944776861055</v>
       </c>
       <c r="R15">
-        <v>0.05356920961002026</v>
+        <v>1.117131601930379</v>
       </c>
       <c r="S15">
-        <v>0.05356920961002026</v>
+        <v>1.117131601930379</v>
       </c>
       <c r="T15">
-        <v>0.1909346358070179</v>
+        <v>1.09136548984054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.2169999617507327</v>
+        <v>1.272736994602419</v>
       </c>
       <c r="D16">
-        <v>0.6738429273350737</v>
+        <v>1.185461344600689</v>
       </c>
       <c r="E16">
-        <v>3.086449098591103</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="F16">
-        <v>0.2169999617507327</v>
+        <v>1.272736994602419</v>
       </c>
       <c r="G16">
-        <v>4.518377135473041</v>
+        <v>1.510153810359975</v>
       </c>
       <c r="H16">
-        <v>0.2213948455065038</v>
+        <v>0.8964547595121962</v>
       </c>
       <c r="I16">
-        <v>3.086449098591103</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="J16">
-        <v>1.554742360421597</v>
+        <v>1.125997325644179</v>
       </c>
       <c r="K16">
-        <v>3.086449098591103</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="L16">
-        <v>0.6738429273350737</v>
+        <v>1.185461344600689</v>
       </c>
       <c r="M16">
-        <v>0.4454214445429032</v>
+        <v>1.229099169601554</v>
       </c>
       <c r="N16">
-        <v>0.4454214445429032</v>
+        <v>1.229099169601554</v>
       </c>
       <c r="O16">
-        <v>0.37074591153077</v>
+        <v>1.118217699571768</v>
       </c>
       <c r="P16">
-        <v>1.325763995892303</v>
+        <v>1.304505652368664</v>
       </c>
       <c r="Q16">
-        <v>1.325763995892303</v>
+        <v>1.304505652368664</v>
       </c>
       <c r="R16">
-        <v>1.765935271567003</v>
+        <v>1.342208893752218</v>
       </c>
       <c r="S16">
-        <v>1.765935271567003</v>
+        <v>1.342208893752218</v>
       </c>
       <c r="T16">
-        <v>1.711967721513008</v>
+        <v>1.241020475437057</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4334329456234194</v>
+        <v>0.1606490566275596</v>
       </c>
       <c r="D17">
-        <v>1.378615495549814</v>
+        <v>1.004130780423058</v>
       </c>
       <c r="E17">
-        <v>2.404300915916951</v>
+        <v>4.305790547276642</v>
       </c>
       <c r="F17">
-        <v>0.4334329456234194</v>
+        <v>0.1606490566275596</v>
       </c>
       <c r="G17">
-        <v>3.355309992601966</v>
+        <v>2.902850775003243</v>
       </c>
       <c r="H17">
-        <v>0.4409912827529335</v>
+        <v>1.093988416680879</v>
       </c>
       <c r="I17">
-        <v>2.404300915916951</v>
+        <v>4.305790547276642</v>
       </c>
       <c r="J17">
-        <v>1.384162154382678</v>
+        <v>1.500996161222442</v>
       </c>
       <c r="K17">
-        <v>2.404300915916951</v>
+        <v>4.305790547276642</v>
       </c>
       <c r="L17">
-        <v>1.378615495549814</v>
+        <v>1.004130780423058</v>
       </c>
       <c r="M17">
-        <v>0.9060242205866166</v>
+        <v>0.582389918525309</v>
       </c>
       <c r="N17">
-        <v>0.9060242205866166</v>
+        <v>0.582389918525309</v>
       </c>
       <c r="O17">
-        <v>0.7510132413087223</v>
+        <v>0.7529227512438322</v>
       </c>
       <c r="P17">
-        <v>1.405449785696728</v>
+        <v>1.82352346144242</v>
       </c>
       <c r="Q17">
-        <v>1.405449785696728</v>
+        <v>1.82352346144242</v>
       </c>
       <c r="R17">
-        <v>1.655162568251784</v>
+        <v>2.444090232900975</v>
       </c>
       <c r="S17">
-        <v>1.655162568251784</v>
+        <v>2.444090232900975</v>
       </c>
       <c r="T17">
-        <v>1.566135464471294</v>
+        <v>1.828067622872304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.203970723540198</v>
+        <v>5.850701618846004</v>
       </c>
       <c r="D18">
-        <v>2.916040003635901</v>
+        <v>1.486298645787362</v>
       </c>
       <c r="E18">
-        <v>1.413183871292814</v>
+        <v>3.990509820253662</v>
       </c>
       <c r="F18">
-        <v>1.203970723540198</v>
+        <v>5.850701618846004</v>
       </c>
       <c r="G18">
-        <v>1.238510326307232</v>
+        <v>7.521796555392684</v>
       </c>
       <c r="H18">
-        <v>0.9584695897176232</v>
+        <v>0.5495866575375242</v>
       </c>
       <c r="I18">
-        <v>1.413183871292814</v>
+        <v>3.990509820253662</v>
       </c>
       <c r="J18">
-        <v>1.235463961491328</v>
+        <v>0.771039236693039</v>
       </c>
       <c r="K18">
-        <v>1.413183871292814</v>
+        <v>3.990509820253662</v>
       </c>
       <c r="L18">
-        <v>2.916040003635901</v>
+        <v>1.486298645787362</v>
       </c>
       <c r="M18">
-        <v>2.060005363588049</v>
+        <v>3.668500132316683</v>
       </c>
       <c r="N18">
-        <v>2.060005363588049</v>
+        <v>3.668500132316683</v>
       </c>
       <c r="O18">
-        <v>1.692826772297907</v>
+        <v>2.628862307390297</v>
       </c>
       <c r="P18">
-        <v>1.844398199489638</v>
+        <v>3.775836694962342</v>
       </c>
       <c r="Q18">
-        <v>1.844398199489638</v>
+        <v>3.775836694962343</v>
       </c>
       <c r="R18">
-        <v>1.736594617440432</v>
+        <v>3.829504976285173</v>
       </c>
       <c r="S18">
-        <v>1.736594617440432</v>
+        <v>3.829504976285173</v>
       </c>
       <c r="T18">
-        <v>1.494273079330849</v>
+        <v>3.36165542241838</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9368900452777595</v>
+        <v>1.04019328391483</v>
       </c>
       <c r="D19">
-        <v>3.921933866856945</v>
+        <v>1.053533190095749</v>
       </c>
       <c r="E19">
-        <v>1.395411340718356</v>
+        <v>1.045104006078424</v>
       </c>
       <c r="F19">
-        <v>0.9368900452777595</v>
+        <v>1.04019328391483</v>
       </c>
       <c r="G19">
-        <v>0.793536661439479</v>
+        <v>1.010624560522242</v>
       </c>
       <c r="H19">
-        <v>1.464133624518319</v>
+        <v>1.009145248540605</v>
       </c>
       <c r="I19">
-        <v>1.395411340718356</v>
+        <v>1.045104006078424</v>
       </c>
       <c r="J19">
-        <v>1.305074265995709</v>
+        <v>1.00919455903098</v>
       </c>
       <c r="K19">
-        <v>1.395411340718356</v>
+        <v>1.045104006078424</v>
       </c>
       <c r="L19">
-        <v>3.921933866856945</v>
+        <v>1.053533190095749</v>
       </c>
       <c r="M19">
-        <v>2.429411956067352</v>
+        <v>1.046863237005289</v>
       </c>
       <c r="N19">
-        <v>2.429411956067352</v>
+        <v>1.046863237005289</v>
       </c>
       <c r="O19">
-        <v>2.107652512217674</v>
+        <v>1.034290574183728</v>
       </c>
       <c r="P19">
-        <v>2.084745084284353</v>
+        <v>1.046276826696334</v>
       </c>
       <c r="Q19">
-        <v>2.084745084284354</v>
+        <v>1.046276826696334</v>
       </c>
       <c r="R19">
-        <v>1.912411648392854</v>
+        <v>1.045983621541857</v>
       </c>
       <c r="S19">
-        <v>1.912411648392854</v>
+        <v>1.045983621541857</v>
       </c>
       <c r="T19">
-        <v>1.636163300801095</v>
+        <v>1.027965808030472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.049947903655869</v>
+        <v>1.027401498316654</v>
       </c>
       <c r="D20">
-        <v>1.058794274806861</v>
+        <v>1.106270822999049</v>
       </c>
       <c r="E20">
-        <v>1.023338639311004</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="F20">
-        <v>1.049947903655869</v>
+        <v>1.027401498316654</v>
       </c>
       <c r="G20">
-        <v>1.046096807929313</v>
+        <v>1.013130123477887</v>
       </c>
       <c r="H20">
-        <v>1.020706845841391</v>
+        <v>1.020841389943508</v>
       </c>
       <c r="I20">
-        <v>1.023338639311004</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="J20">
-        <v>1.004812452600998</v>
+        <v>1.002626378079932</v>
       </c>
       <c r="K20">
-        <v>1.023338639311004</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="L20">
-        <v>1.058794274806861</v>
+        <v>1.106270822999049</v>
       </c>
       <c r="M20">
-        <v>1.054371089231365</v>
+        <v>1.066836160657851</v>
       </c>
       <c r="N20">
-        <v>1.054371089231365</v>
+        <v>1.066836160657851</v>
       </c>
       <c r="O20">
-        <v>1.04314967476804</v>
+        <v>1.051504570419737</v>
       </c>
       <c r="P20">
-        <v>1.044026939257912</v>
+        <v>1.082344922315966</v>
       </c>
       <c r="Q20">
-        <v>1.044026939257912</v>
+        <v>1.082344922315966</v>
       </c>
       <c r="R20">
-        <v>1.038854864271185</v>
+        <v>1.090099303145024</v>
       </c>
       <c r="S20">
-        <v>1.038854864271185</v>
+        <v>1.090099303145024</v>
       </c>
       <c r="T20">
-        <v>1.033949487357573</v>
+        <v>1.047272109741538</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.103769990548849</v>
+        <v>0.9743829826217915</v>
       </c>
       <c r="D21">
-        <v>1.068150624251218</v>
+        <v>1.074070362225052</v>
       </c>
       <c r="E21">
-        <v>1.160082384718444</v>
+        <v>1.350648745440417</v>
       </c>
       <c r="F21">
-        <v>1.103769990548849</v>
+        <v>0.9743829826217915</v>
       </c>
       <c r="G21">
-        <v>0.8667061198083762</v>
+        <v>1.061654068355533</v>
       </c>
       <c r="H21">
-        <v>1.0296437082431</v>
+        <v>1.007464458402296</v>
       </c>
       <c r="I21">
-        <v>1.160082384718444</v>
+        <v>1.350648745440417</v>
       </c>
       <c r="J21">
-        <v>1.019598478426555</v>
+        <v>0.9600455922216719</v>
       </c>
       <c r="K21">
-        <v>1.160082384718444</v>
+        <v>1.350648745440417</v>
       </c>
       <c r="L21">
-        <v>1.068150624251218</v>
+        <v>1.074070362225052</v>
       </c>
       <c r="M21">
-        <v>1.085960307400033</v>
+        <v>1.024226672423422</v>
       </c>
       <c r="N21">
-        <v>1.085960307400033</v>
+        <v>1.024226672423422</v>
       </c>
       <c r="O21">
-        <v>1.067188107681056</v>
+        <v>1.018639267749713</v>
       </c>
       <c r="P21">
-        <v>1.110667666506171</v>
+        <v>1.133034030095753</v>
       </c>
       <c r="Q21">
-        <v>1.110667666506171</v>
+        <v>1.133034030095753</v>
       </c>
       <c r="R21">
-        <v>1.123021346059239</v>
+        <v>1.187437708931919</v>
       </c>
       <c r="S21">
-        <v>1.123021346059239</v>
+        <v>1.187437708931919</v>
       </c>
       <c r="T21">
-        <v>1.041325217666091</v>
+        <v>1.07137770154446</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.618103377111098</v>
+        <v>0.9790552688771149</v>
       </c>
       <c r="D22">
-        <v>1.037934399144971</v>
+        <v>1.38202567691214</v>
       </c>
       <c r="E22">
-        <v>2.659583141224379</v>
+        <v>1.72016666264136</v>
       </c>
       <c r="F22">
-        <v>1.618103377111098</v>
+        <v>0.9790552688771149</v>
       </c>
       <c r="G22">
-        <v>0.9743983017478099</v>
+        <v>1.27769069858658</v>
       </c>
       <c r="H22">
-        <v>0.9319468683073685</v>
+        <v>1.042070324428267</v>
       </c>
       <c r="I22">
-        <v>2.659583141224379</v>
+        <v>1.72016666264136</v>
       </c>
       <c r="J22">
-        <v>0.9940084541277376</v>
+        <v>1.140663995951151</v>
       </c>
       <c r="K22">
-        <v>2.659583141224379</v>
+        <v>1.72016666264136</v>
       </c>
       <c r="L22">
-        <v>1.037934399144971</v>
+        <v>1.38202567691214</v>
       </c>
       <c r="M22">
-        <v>1.328018888128035</v>
+        <v>1.180540472894627</v>
       </c>
       <c r="N22">
-        <v>1.328018888128035</v>
+        <v>1.180540472894627</v>
       </c>
       <c r="O22">
-        <v>1.195994881521146</v>
+        <v>1.134383756739174</v>
       </c>
       <c r="P22">
-        <v>1.771873639160149</v>
+        <v>1.360415869476872</v>
       </c>
       <c r="Q22">
-        <v>1.771873639160149</v>
+        <v>1.360415869476872</v>
       </c>
       <c r="R22">
-        <v>1.993801014676207</v>
+        <v>1.450353567767994</v>
       </c>
       <c r="S22">
-        <v>1.993801014676207</v>
+        <v>1.450353567767994</v>
       </c>
       <c r="T22">
-        <v>1.369329090277227</v>
+        <v>1.256945437899436</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.2403595378022908</v>
+      </c>
+      <c r="D23">
+        <v>1.915814228467984</v>
+      </c>
+      <c r="E23">
+        <v>2.302690373690194</v>
+      </c>
+      <c r="F23">
+        <v>0.2403595378022908</v>
+      </c>
+      <c r="G23">
+        <v>1.01217303556299</v>
+      </c>
+      <c r="H23">
+        <v>0.6721192551305836</v>
+      </c>
+      <c r="I23">
+        <v>2.302690373690194</v>
+      </c>
+      <c r="J23">
+        <v>1.071738085100184</v>
+      </c>
+      <c r="K23">
+        <v>2.302690373690194</v>
+      </c>
+      <c r="L23">
+        <v>1.915814228467984</v>
+      </c>
+      <c r="M23">
+        <v>1.078086883135137</v>
+      </c>
+      <c r="N23">
+        <v>1.078086883135137</v>
+      </c>
+      <c r="O23">
+        <v>0.9427643404669527</v>
+      </c>
+      <c r="P23">
+        <v>1.486288046653489</v>
+      </c>
+      <c r="Q23">
+        <v>1.486288046653489</v>
+      </c>
+      <c r="R23">
+        <v>1.690388628412665</v>
+      </c>
+      <c r="S23">
+        <v>1.690388628412665</v>
+      </c>
+      <c r="T23">
+        <v>1.202482419292371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.000532298282533667</v>
+      </c>
+      <c r="D24">
+        <v>1.399240406789604</v>
+      </c>
+      <c r="E24">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="F24">
+        <v>0.000532298282533667</v>
+      </c>
+      <c r="G24">
+        <v>-0.001559141307159513</v>
+      </c>
+      <c r="H24">
+        <v>2.059291498268636</v>
+      </c>
+      <c r="I24">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="J24">
+        <v>1.048348205524001</v>
+      </c>
+      <c r="K24">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="L24">
+        <v>1.399240406789604</v>
+      </c>
+      <c r="M24">
+        <v>0.6998863525360688</v>
+      </c>
+      <c r="N24">
+        <v>0.6998863525360688</v>
+      </c>
+      <c r="O24">
+        <v>1.153021401113591</v>
+      </c>
+      <c r="P24">
+        <v>0.4666868028861066</v>
+      </c>
+      <c r="Q24">
+        <v>0.4666868028861066</v>
+      </c>
+      <c r="R24">
+        <v>0.3500870280611256</v>
+      </c>
+      <c r="S24">
+        <v>0.3500870280611256</v>
+      </c>
+      <c r="T24">
+        <v>0.7510234951906328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>4.266821309831473</v>
+      </c>
+      <c r="D25">
+        <v>0.02000177124010596</v>
+      </c>
+      <c r="E25">
+        <v>3.102638420902982</v>
+      </c>
+      <c r="F25">
+        <v>4.266821309831473</v>
+      </c>
+      <c r="G25">
+        <v>3.155339425965618</v>
+      </c>
+      <c r="H25">
+        <v>1.472654676476381</v>
+      </c>
+      <c r="I25">
+        <v>3.102638420902982</v>
+      </c>
+      <c r="J25">
+        <v>0.6719815952770193</v>
+      </c>
+      <c r="K25">
+        <v>3.102638420902982</v>
+      </c>
+      <c r="L25">
+        <v>0.02000177124010596</v>
+      </c>
+      <c r="M25">
+        <v>2.143411540535789</v>
+      </c>
+      <c r="N25">
+        <v>2.143411540535789</v>
+      </c>
+      <c r="O25">
+        <v>1.919825919182653</v>
+      </c>
+      <c r="P25">
+        <v>2.46315383399152</v>
+      </c>
+      <c r="Q25">
+        <v>2.46315383399152</v>
+      </c>
+      <c r="R25">
+        <v>2.623024980719386</v>
+      </c>
+      <c r="S25">
+        <v>2.623024980719386</v>
+      </c>
+      <c r="T25">
+        <v>2.11490619994893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.004538901905293547</v>
+      </c>
+      <c r="D26">
+        <v>0.2444052323227772</v>
+      </c>
+      <c r="E26">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="F26">
+        <v>-0.004538901905293547</v>
+      </c>
+      <c r="G26">
+        <v>2.807453434814114</v>
+      </c>
+      <c r="H26">
+        <v>0.277491394640421</v>
+      </c>
+      <c r="I26">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="J26">
+        <v>1.817098418793493</v>
+      </c>
+      <c r="K26">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="L26">
+        <v>0.2444052323227772</v>
+      </c>
+      <c r="M26">
+        <v>0.1199331652087418</v>
+      </c>
+      <c r="N26">
+        <v>0.1199331652087418</v>
+      </c>
+      <c r="O26">
+        <v>0.1724525750193016</v>
+      </c>
+      <c r="P26">
+        <v>0.1255144319465605</v>
+      </c>
+      <c r="Q26">
+        <v>0.1255144319465605</v>
+      </c>
+      <c r="R26">
+        <v>0.1283050653154698</v>
+      </c>
+      <c r="S26">
+        <v>0.1283050653154698</v>
+      </c>
+      <c r="T26">
+        <v>0.8797644240146182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.001693800555954467</v>
+      </c>
+      <c r="D27">
+        <v>0.03517713594029284</v>
+      </c>
+      <c r="E27">
+        <v>0.08870295097191687</v>
+      </c>
+      <c r="F27">
+        <v>0.001693800555954467</v>
+      </c>
+      <c r="G27">
+        <v>0.0009285292887252522</v>
+      </c>
+      <c r="H27">
+        <v>0.1736462014875939</v>
+      </c>
+      <c r="I27">
+        <v>0.08870295097191687</v>
+      </c>
+      <c r="J27">
+        <v>0.8454591965976243</v>
+      </c>
+      <c r="K27">
+        <v>0.08870295097191687</v>
+      </c>
+      <c r="L27">
+        <v>0.03517713594029284</v>
+      </c>
+      <c r="M27">
+        <v>0.01843546824812365</v>
+      </c>
+      <c r="N27">
+        <v>0.01843546824812365</v>
+      </c>
+      <c r="O27">
+        <v>0.07017237932794707</v>
+      </c>
+      <c r="P27">
+        <v>0.04185796248938806</v>
+      </c>
+      <c r="Q27">
+        <v>0.04185796248938806</v>
+      </c>
+      <c r="R27">
+        <v>0.05356920961002026</v>
+      </c>
+      <c r="S27">
+        <v>0.05356920961002026</v>
+      </c>
+      <c r="T27">
+        <v>0.1909346358070179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.2169999617507327</v>
+      </c>
+      <c r="D28">
+        <v>0.6738429273350737</v>
+      </c>
+      <c r="E28">
+        <v>3.086449098591103</v>
+      </c>
+      <c r="F28">
+        <v>0.2169999617507327</v>
+      </c>
+      <c r="G28">
+        <v>4.518377135473041</v>
+      </c>
+      <c r="H28">
+        <v>0.2213948455065038</v>
+      </c>
+      <c r="I28">
+        <v>3.086449098591103</v>
+      </c>
+      <c r="J28">
+        <v>1.554742360421597</v>
+      </c>
+      <c r="K28">
+        <v>3.086449098591103</v>
+      </c>
+      <c r="L28">
+        <v>0.6738429273350737</v>
+      </c>
+      <c r="M28">
+        <v>0.4454214445429032</v>
+      </c>
+      <c r="N28">
+        <v>0.4454214445429032</v>
+      </c>
+      <c r="O28">
+        <v>0.37074591153077</v>
+      </c>
+      <c r="P28">
+        <v>1.325763995892303</v>
+      </c>
+      <c r="Q28">
+        <v>1.325763995892303</v>
+      </c>
+      <c r="R28">
+        <v>1.765935271567003</v>
+      </c>
+      <c r="S28">
+        <v>1.765935271567003</v>
+      </c>
+      <c r="T28">
+        <v>1.711967721513008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.4334329456234194</v>
+      </c>
+      <c r="D29">
+        <v>1.378615495549814</v>
+      </c>
+      <c r="E29">
+        <v>2.404300915916951</v>
+      </c>
+      <c r="F29">
+        <v>0.4334329456234194</v>
+      </c>
+      <c r="G29">
+        <v>3.355309992601966</v>
+      </c>
+      <c r="H29">
+        <v>0.4409912827529335</v>
+      </c>
+      <c r="I29">
+        <v>2.404300915916951</v>
+      </c>
+      <c r="J29">
+        <v>1.384162154382678</v>
+      </c>
+      <c r="K29">
+        <v>2.404300915916951</v>
+      </c>
+      <c r="L29">
+        <v>1.378615495549814</v>
+      </c>
+      <c r="M29">
+        <v>0.9060242205866166</v>
+      </c>
+      <c r="N29">
+        <v>0.9060242205866166</v>
+      </c>
+      <c r="O29">
+        <v>0.7510132413087223</v>
+      </c>
+      <c r="P29">
+        <v>1.405449785696728</v>
+      </c>
+      <c r="Q29">
+        <v>1.405449785696728</v>
+      </c>
+      <c r="R29">
+        <v>1.655162568251784</v>
+      </c>
+      <c r="S29">
+        <v>1.655162568251784</v>
+      </c>
+      <c r="T29">
+        <v>1.566135464471294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.203970723540198</v>
+      </c>
+      <c r="D30">
+        <v>2.916040003635901</v>
+      </c>
+      <c r="E30">
+        <v>1.413183871292814</v>
+      </c>
+      <c r="F30">
+        <v>1.203970723540198</v>
+      </c>
+      <c r="G30">
+        <v>1.238510326307232</v>
+      </c>
+      <c r="H30">
+        <v>0.9584695897176232</v>
+      </c>
+      <c r="I30">
+        <v>1.413183871292814</v>
+      </c>
+      <c r="J30">
+        <v>1.235463961491328</v>
+      </c>
+      <c r="K30">
+        <v>1.413183871292814</v>
+      </c>
+      <c r="L30">
+        <v>2.916040003635901</v>
+      </c>
+      <c r="M30">
+        <v>2.060005363588049</v>
+      </c>
+      <c r="N30">
+        <v>2.060005363588049</v>
+      </c>
+      <c r="O30">
+        <v>1.692826772297907</v>
+      </c>
+      <c r="P30">
+        <v>1.844398199489638</v>
+      </c>
+      <c r="Q30">
+        <v>1.844398199489638</v>
+      </c>
+      <c r="R30">
+        <v>1.736594617440432</v>
+      </c>
+      <c r="S30">
+        <v>1.736594617440432</v>
+      </c>
+      <c r="T30">
+        <v>1.494273079330849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9368900452777595</v>
+      </c>
+      <c r="D31">
+        <v>3.921933866856945</v>
+      </c>
+      <c r="E31">
+        <v>1.395411340718356</v>
+      </c>
+      <c r="F31">
+        <v>0.9368900452777595</v>
+      </c>
+      <c r="G31">
+        <v>0.793536661439479</v>
+      </c>
+      <c r="H31">
+        <v>1.464133624518319</v>
+      </c>
+      <c r="I31">
+        <v>1.395411340718356</v>
+      </c>
+      <c r="J31">
+        <v>1.305074265995709</v>
+      </c>
+      <c r="K31">
+        <v>1.395411340718356</v>
+      </c>
+      <c r="L31">
+        <v>3.921933866856945</v>
+      </c>
+      <c r="M31">
+        <v>2.429411956067352</v>
+      </c>
+      <c r="N31">
+        <v>2.429411956067352</v>
+      </c>
+      <c r="O31">
+        <v>2.107652512217674</v>
+      </c>
+      <c r="P31">
+        <v>2.084745084284353</v>
+      </c>
+      <c r="Q31">
+        <v>2.084745084284354</v>
+      </c>
+      <c r="R31">
+        <v>1.912411648392854</v>
+      </c>
+      <c r="S31">
+        <v>1.912411648392854</v>
+      </c>
+      <c r="T31">
+        <v>1.636163300801095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>7.397461926027393E-05</v>
+      </c>
+      <c r="D32">
+        <v>0.002368008684931506</v>
+      </c>
+      <c r="E32">
+        <v>5.398213951819177</v>
+      </c>
+      <c r="F32">
+        <v>7.397461926027393E-05</v>
+      </c>
+      <c r="G32">
+        <v>5.602081230169865</v>
+      </c>
+      <c r="H32">
+        <v>0.001249337267123289</v>
+      </c>
+      <c r="I32">
+        <v>5.398213951819177</v>
+      </c>
+      <c r="J32">
+        <v>1.700647374421918</v>
+      </c>
+      <c r="K32">
+        <v>5.398213951819177</v>
+      </c>
+      <c r="L32">
+        <v>0.002368008684931506</v>
+      </c>
+      <c r="M32">
+        <v>0.00122099165209589</v>
+      </c>
+      <c r="N32">
+        <v>0.00122099165209589</v>
+      </c>
+      <c r="O32">
+        <v>0.001230440190438356</v>
+      </c>
+      <c r="P32">
+        <v>1.800218645041123</v>
+      </c>
+      <c r="Q32">
+        <v>1.800218645041123</v>
+      </c>
+      <c r="R32">
+        <v>2.699717471735637</v>
+      </c>
+      <c r="S32">
+        <v>2.699717471735637</v>
+      </c>
+      <c r="T32">
+        <v>2.117438979497046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>7.1541481669</v>
+      </c>
+      <c r="D33">
+        <v>5.160641614732109</v>
+      </c>
+      <c r="E33">
+        <v>3.576971794984737</v>
+      </c>
+      <c r="F33">
+        <v>7.1541481669</v>
+      </c>
+      <c r="G33">
+        <v>15.48614188696632</v>
+      </c>
+      <c r="H33">
+        <v>0.001693667789473684</v>
+      </c>
+      <c r="I33">
+        <v>3.576971794984737</v>
+      </c>
+      <c r="J33">
+        <v>-0.006934997314736842</v>
+      </c>
+      <c r="K33">
+        <v>3.576971794984737</v>
+      </c>
+      <c r="L33">
+        <v>5.160641614732109</v>
+      </c>
+      <c r="M33">
+        <v>6.157394890816054</v>
+      </c>
+      <c r="N33">
+        <v>6.157394890816054</v>
+      </c>
+      <c r="O33">
+        <v>4.105494483140527</v>
+      </c>
+      <c r="P33">
+        <v>5.297253858872281</v>
+      </c>
+      <c r="Q33">
+        <v>5.297253858872282</v>
+      </c>
+      <c r="R33">
+        <v>4.867183342900396</v>
+      </c>
+      <c r="S33">
+        <v>4.867183342900396</v>
+      </c>
+      <c r="T33">
+        <v>5.228777022342983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.007059912923684212</v>
+      </c>
+      <c r="D34">
+        <v>6.978976538800003</v>
+      </c>
+      <c r="E34">
+        <v>13.95229605936842</v>
+      </c>
+      <c r="F34">
+        <v>0.007059912923684212</v>
+      </c>
+      <c r="G34">
+        <v>0.008372386005263159</v>
+      </c>
+      <c r="H34">
+        <v>0.001535044043157895</v>
+      </c>
+      <c r="I34">
+        <v>13.95229605936842</v>
+      </c>
+      <c r="J34">
+        <v>5.221143802310525</v>
+      </c>
+      <c r="K34">
+        <v>13.95229605936842</v>
+      </c>
+      <c r="L34">
+        <v>6.978976538800003</v>
+      </c>
+      <c r="M34">
+        <v>3.493018225861844</v>
+      </c>
+      <c r="N34">
+        <v>3.493018225861844</v>
+      </c>
+      <c r="O34">
+        <v>2.329190498588948</v>
+      </c>
+      <c r="P34">
+        <v>6.979444170364037</v>
+      </c>
+      <c r="Q34">
+        <v>6.979444170364037</v>
+      </c>
+      <c r="R34">
+        <v>8.722657142615134</v>
+      </c>
+      <c r="S34">
+        <v>8.722657142615134</v>
+      </c>
+      <c r="T34">
+        <v>4.361563957241843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4208240059199511</v>
+      </c>
+      <c r="D35">
+        <v>31.59099687277516</v>
+      </c>
+      <c r="E35">
+        <v>0.4672964638756013</v>
+      </c>
+      <c r="F35">
+        <v>0.4208240059199511</v>
+      </c>
+      <c r="G35">
+        <v>0.5043909674042102</v>
+      </c>
+      <c r="H35">
+        <v>0.481565531407553</v>
+      </c>
+      <c r="I35">
+        <v>0.4672964638756013</v>
+      </c>
+      <c r="J35">
+        <v>0.5135933416184758</v>
+      </c>
+      <c r="K35">
+        <v>0.4672964638756013</v>
+      </c>
+      <c r="L35">
+        <v>31.59099687277516</v>
+      </c>
+      <c r="M35">
+        <v>16.00591043934756</v>
+      </c>
+      <c r="N35">
+        <v>16.00591043934756</v>
+      </c>
+      <c r="O35">
+        <v>10.83112880336756</v>
+      </c>
+      <c r="P35">
+        <v>10.82637244752357</v>
+      </c>
+      <c r="Q35">
+        <v>10.82637244752357</v>
+      </c>
+      <c r="R35">
+        <v>8.236603451611579</v>
+      </c>
+      <c r="S35">
+        <v>8.236603451611579</v>
+      </c>
+      <c r="T35">
+        <v>5.663111197166827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.049947903655869</v>
+      </c>
+      <c r="D36">
+        <v>1.058794274806861</v>
+      </c>
+      <c r="E36">
+        <v>1.023338639311004</v>
+      </c>
+      <c r="F36">
+        <v>1.049947903655869</v>
+      </c>
+      <c r="G36">
+        <v>1.046096807929313</v>
+      </c>
+      <c r="H36">
+        <v>1.020706845841391</v>
+      </c>
+      <c r="I36">
+        <v>1.023338639311004</v>
+      </c>
+      <c r="J36">
+        <v>1.004812452600998</v>
+      </c>
+      <c r="K36">
+        <v>1.023338639311004</v>
+      </c>
+      <c r="L36">
+        <v>1.058794274806861</v>
+      </c>
+      <c r="M36">
+        <v>1.054371089231365</v>
+      </c>
+      <c r="N36">
+        <v>1.054371089231365</v>
+      </c>
+      <c r="O36">
+        <v>1.04314967476804</v>
+      </c>
+      <c r="P36">
+        <v>1.044026939257912</v>
+      </c>
+      <c r="Q36">
+        <v>1.044026939257912</v>
+      </c>
+      <c r="R36">
+        <v>1.038854864271185</v>
+      </c>
+      <c r="S36">
+        <v>1.038854864271185</v>
+      </c>
+      <c r="T36">
+        <v>1.033949487357573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.103769990548849</v>
+      </c>
+      <c r="D37">
+        <v>1.068150624251218</v>
+      </c>
+      <c r="E37">
+        <v>1.160082384718444</v>
+      </c>
+      <c r="F37">
+        <v>1.103769990548849</v>
+      </c>
+      <c r="G37">
+        <v>0.8667061198083762</v>
+      </c>
+      <c r="H37">
+        <v>1.0296437082431</v>
+      </c>
+      <c r="I37">
+        <v>1.160082384718444</v>
+      </c>
+      <c r="J37">
+        <v>1.019598478426555</v>
+      </c>
+      <c r="K37">
+        <v>1.160082384718444</v>
+      </c>
+      <c r="L37">
+        <v>1.068150624251218</v>
+      </c>
+      <c r="M37">
+        <v>1.085960307400033</v>
+      </c>
+      <c r="N37">
+        <v>1.085960307400033</v>
+      </c>
+      <c r="O37">
+        <v>1.067188107681056</v>
+      </c>
+      <c r="P37">
+        <v>1.110667666506171</v>
+      </c>
+      <c r="Q37">
+        <v>1.110667666506171</v>
+      </c>
+      <c r="R37">
+        <v>1.123021346059239</v>
+      </c>
+      <c r="S37">
+        <v>1.123021346059239</v>
+      </c>
+      <c r="T37">
+        <v>1.041325217666091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.618103377111098</v>
+      </c>
+      <c r="D38">
+        <v>1.037934399144971</v>
+      </c>
+      <c r="E38">
+        <v>2.659583141224379</v>
+      </c>
+      <c r="F38">
+        <v>1.618103377111098</v>
+      </c>
+      <c r="G38">
+        <v>0.9743983017478099</v>
+      </c>
+      <c r="H38">
+        <v>0.9319468683073685</v>
+      </c>
+      <c r="I38">
+        <v>2.659583141224379</v>
+      </c>
+      <c r="J38">
+        <v>0.9940084541277376</v>
+      </c>
+      <c r="K38">
+        <v>2.659583141224379</v>
+      </c>
+      <c r="L38">
+        <v>1.037934399144971</v>
+      </c>
+      <c r="M38">
+        <v>1.328018888128035</v>
+      </c>
+      <c r="N38">
+        <v>1.328018888128035</v>
+      </c>
+      <c r="O38">
+        <v>1.195994881521146</v>
+      </c>
+      <c r="P38">
+        <v>1.771873639160149</v>
+      </c>
+      <c r="Q38">
+        <v>1.771873639160149</v>
+      </c>
+      <c r="R38">
+        <v>1.993801014676207</v>
+      </c>
+      <c r="S38">
+        <v>1.993801014676207</v>
+      </c>
+      <c r="T38">
+        <v>1.369329090277227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.4478881063598256</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.491000122320962</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>3.017756255500314</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.4478881063598256</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.7620836300961501</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.7364662864100542</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>3.017756255500314</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.043683420542332</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>3.017756255500314</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.491000122320962</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9694441143403938</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9694441143403938</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.8917848383636139</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.652214828060367</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.652214828060367</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.993600184920354</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.993600184920354</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.24981297020494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8761505387600875</v>
+      </c>
+      <c r="D40">
+        <v>1.076115324506955</v>
+      </c>
+      <c r="E40">
+        <v>0.9483741113112045</v>
+      </c>
+      <c r="F40">
+        <v>0.8761505387600875</v>
+      </c>
+      <c r="G40">
+        <v>3.056244653791921</v>
+      </c>
+      <c r="H40">
+        <v>0.7864579448109296</v>
+      </c>
+      <c r="I40">
+        <v>0.9483741113112045</v>
+      </c>
+      <c r="J40">
+        <v>0.9598940213841621</v>
+      </c>
+      <c r="K40">
+        <v>0.9483741113112045</v>
+      </c>
+      <c r="L40">
+        <v>1.076115324506955</v>
+      </c>
+      <c r="M40">
+        <v>0.976132931633521</v>
+      </c>
+      <c r="N40">
+        <v>0.976132931633521</v>
+      </c>
+      <c r="O40">
+        <v>0.9129079360259905</v>
+      </c>
+      <c r="P40">
+        <v>0.9668799915260822</v>
+      </c>
+      <c r="Q40">
+        <v>0.9668799915260822</v>
+      </c>
+      <c r="R40">
+        <v>0.9622535214723628</v>
+      </c>
+      <c r="S40">
+        <v>0.9622535214723628</v>
+      </c>
+      <c r="T40">
+        <v>1.283872765760877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.021174744500143</v>
+      </c>
+      <c r="D41">
+        <v>1.026707352609767</v>
+      </c>
+      <c r="E41">
+        <v>1.13080305289203</v>
+      </c>
+      <c r="F41">
+        <v>1.021174744500143</v>
+      </c>
+      <c r="G41">
+        <v>0.7420551664695317</v>
+      </c>
+      <c r="H41">
+        <v>0.9517558532743728</v>
+      </c>
+      <c r="I41">
+        <v>1.13080305289203</v>
+      </c>
+      <c r="J41">
+        <v>1.032748713224088</v>
+      </c>
+      <c r="K41">
+        <v>1.13080305289203</v>
+      </c>
+      <c r="L41">
+        <v>1.026707352609767</v>
+      </c>
+      <c r="M41">
+        <v>1.023941048554955</v>
+      </c>
+      <c r="N41">
+        <v>1.023941048554955</v>
+      </c>
+      <c r="O41">
+        <v>0.9998793167947609</v>
+      </c>
+      <c r="P41">
+        <v>1.059561716667313</v>
+      </c>
+      <c r="Q41">
+        <v>1.059561716667313</v>
+      </c>
+      <c r="R41">
+        <v>1.077372050723493</v>
+      </c>
+      <c r="S41">
+        <v>1.077372050723493</v>
+      </c>
+      <c r="T41">
+        <v>0.9842074804949889</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9649120123633756</v>
+      </c>
+      <c r="D42">
+        <v>1.097994207683717</v>
+      </c>
+      <c r="E42">
+        <v>0.9551223504657058</v>
+      </c>
+      <c r="F42">
+        <v>0.9649120123633756</v>
+      </c>
+      <c r="G42">
+        <v>3.151457899255853</v>
+      </c>
+      <c r="H42">
+        <v>0.7055203508631624</v>
+      </c>
+      <c r="I42">
+        <v>0.9551223504657058</v>
+      </c>
+      <c r="J42">
+        <v>0.8966237532061687</v>
+      </c>
+      <c r="K42">
+        <v>0.9551223504657058</v>
+      </c>
+      <c r="L42">
+        <v>1.097994207683717</v>
+      </c>
+      <c r="M42">
+        <v>1.031453110023546</v>
+      </c>
+      <c r="N42">
+        <v>1.031453110023546</v>
+      </c>
+      <c r="O42">
+        <v>0.922808856970085</v>
+      </c>
+      <c r="P42">
+        <v>1.006009523504266</v>
+      </c>
+      <c r="Q42">
+        <v>1.006009523504266</v>
+      </c>
+      <c r="R42">
+        <v>0.9932877302446261</v>
+      </c>
+      <c r="S42">
+        <v>0.9932877302446261</v>
+      </c>
+      <c r="T42">
+        <v>1.29527176230633</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.192692077138352</v>
+        <v>1.027401498316654</v>
       </c>
       <c r="D3">
-        <v>1.020151689824415</v>
+        <v>1.106270822999049</v>
       </c>
       <c r="E3">
-        <v>1.062990563620398</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="F3">
-        <v>1.192692077138352</v>
+        <v>1.027401498316654</v>
       </c>
       <c r="G3">
-        <v>1.257249356214491</v>
+        <v>1.013130123477887</v>
       </c>
       <c r="H3">
-        <v>0.9733727913175294</v>
+        <v>1.020841389943508</v>
       </c>
       <c r="I3">
-        <v>1.041736460928056</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="J3">
-        <v>1.020151689824415</v>
+        <v>1.002626378079932</v>
       </c>
       <c r="K3">
-        <v>1.192692077138352</v>
+        <v>1.113362445632196</v>
       </c>
       <c r="L3">
-        <v>1.062990563620398</v>
+        <v>1.106270822999049</v>
       </c>
       <c r="M3">
-        <v>1.041571126722407</v>
+        <v>1.066836160657851</v>
       </c>
       <c r="N3">
-        <v>1.041571126722407</v>
+        <v>1.066836160657851</v>
       </c>
       <c r="O3">
-        <v>1.018838348254114</v>
+        <v>1.051504570419737</v>
       </c>
       <c r="P3">
-        <v>1.091944776861055</v>
+        <v>1.082344922315966</v>
       </c>
       <c r="Q3">
-        <v>1.091944776861055</v>
+        <v>1.082344922315966</v>
       </c>
       <c r="R3">
-        <v>1.117131601930379</v>
+        <v>1.090099303145024</v>
       </c>
       <c r="S3">
-        <v>1.117131601930379</v>
+        <v>1.090099303145024</v>
       </c>
       <c r="T3">
-        <v>1.09136548984054</v>
+        <v>1.047272109741538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.455318617902882</v>
+        <v>0.8761505387600875</v>
       </c>
       <c r="D4">
-        <v>1.272736994602419</v>
+        <v>1.076115324506955</v>
       </c>
       <c r="E4">
-        <v>1.185461344600689</v>
+        <v>0.9483741113112045</v>
       </c>
       <c r="F4">
-        <v>1.455318617902882</v>
+        <v>0.8761505387600875</v>
       </c>
       <c r="G4">
-        <v>1.510153810359975</v>
+        <v>3.056244653791921</v>
       </c>
       <c r="H4">
-        <v>0.8964547595121962</v>
+        <v>0.7864579448109296</v>
       </c>
       <c r="I4">
-        <v>1.125997325644179</v>
+        <v>0.9483741113112045</v>
       </c>
       <c r="J4">
-        <v>1.272736994602419</v>
+        <v>0.9598940213841621</v>
       </c>
       <c r="K4">
-        <v>1.455318617902882</v>
+        <v>0.9483741113112045</v>
       </c>
       <c r="L4">
-        <v>1.185461344600689</v>
+        <v>1.076115324506955</v>
       </c>
       <c r="M4">
-        <v>1.229099169601554</v>
+        <v>0.976132931633521</v>
       </c>
       <c r="N4">
-        <v>1.229099169601554</v>
+        <v>0.976132931633521</v>
       </c>
       <c r="O4">
-        <v>1.118217699571768</v>
+        <v>0.9129079360259905</v>
       </c>
       <c r="P4">
-        <v>1.304505652368664</v>
+        <v>0.9668799915260822</v>
       </c>
       <c r="Q4">
-        <v>1.304505652368664</v>
+        <v>0.9668799915260822</v>
       </c>
       <c r="R4">
-        <v>1.342208893752218</v>
+        <v>0.9622535214723628</v>
       </c>
       <c r="S4">
-        <v>1.342208893752218</v>
+        <v>0.9622535214723628</v>
       </c>
       <c r="T4">
-        <v>1.241020475437057</v>
+        <v>1.283872765760877</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.305790547276643</v>
+        <v>0.8149964118701495</v>
       </c>
       <c r="D5">
-        <v>0.1606490566275596</v>
+        <v>4.168011907277007</v>
       </c>
       <c r="E5">
-        <v>1.004130780423058</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="F5">
-        <v>4.305790547276643</v>
+        <v>0.8149964118701495</v>
       </c>
       <c r="G5">
-        <v>2.902850775003243</v>
+        <v>1.096121626326326</v>
       </c>
       <c r="H5">
-        <v>1.093988416680879</v>
+        <v>0.8281591837986223</v>
       </c>
       <c r="I5">
-        <v>1.500996161222442</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="J5">
-        <v>0.1606490566275596</v>
+        <v>1.091573070819084</v>
       </c>
       <c r="K5">
-        <v>4.305790547276643</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="L5">
-        <v>1.004130780423058</v>
+        <v>4.168011907277007</v>
       </c>
       <c r="M5">
-        <v>0.582389918525309</v>
+        <v>2.491504159573578</v>
       </c>
       <c r="N5">
-        <v>0.582389918525309</v>
+        <v>2.491504159573578</v>
       </c>
       <c r="O5">
-        <v>0.7529227512438322</v>
+        <v>1.93705583431526</v>
       </c>
       <c r="P5">
-        <v>1.82352346144242</v>
+        <v>2.0427529135951</v>
       </c>
       <c r="Q5">
-        <v>1.82352346144242</v>
+        <v>2.0427529135951</v>
       </c>
       <c r="R5">
-        <v>2.444090232900976</v>
+        <v>1.81837729060586</v>
       </c>
       <c r="S5">
-        <v>2.444090232900976</v>
+        <v>1.81837729060586</v>
       </c>
       <c r="T5">
-        <v>1.828067622872304</v>
+        <v>1.524018770288222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.990509820253663</v>
+        <v>0.4208240059199511</v>
       </c>
       <c r="D6">
-        <v>5.850701618846004</v>
+        <v>31.59099687277516</v>
       </c>
       <c r="E6">
-        <v>1.486298645787362</v>
+        <v>0.4672964638756013</v>
       </c>
       <c r="F6">
-        <v>3.990509820253663</v>
+        <v>0.4208240059199511</v>
       </c>
       <c r="G6">
-        <v>7.521796555392684</v>
+        <v>0.5043909674042102</v>
       </c>
       <c r="H6">
-        <v>0.5495866575375242</v>
+        <v>0.481565531407553</v>
       </c>
       <c r="I6">
-        <v>0.771039236693039</v>
+        <v>0.4672964638756013</v>
       </c>
       <c r="J6">
-        <v>5.850701618846004</v>
+        <v>0.5135933416184758</v>
       </c>
       <c r="K6">
-        <v>3.990509820253663</v>
+        <v>0.4672964638756013</v>
       </c>
       <c r="L6">
-        <v>1.486298645787362</v>
+        <v>31.59099687277516</v>
       </c>
       <c r="M6">
-        <v>3.668500132316683</v>
+        <v>16.00591043934756</v>
       </c>
       <c r="N6">
-        <v>3.668500132316683</v>
+        <v>16.00591043934756</v>
       </c>
       <c r="O6">
-        <v>2.628862307390297</v>
+        <v>10.83112880336756</v>
       </c>
       <c r="P6">
-        <v>3.775836694962342</v>
+        <v>10.82637244752357</v>
       </c>
       <c r="Q6">
-        <v>3.775836694962343</v>
+        <v>10.82637244752357</v>
       </c>
       <c r="R6">
-        <v>3.829504976285173</v>
+        <v>8.236603451611579</v>
       </c>
       <c r="S6">
-        <v>3.829504976285173</v>
+        <v>8.236603451611579</v>
       </c>
       <c r="T6">
-        <v>3.36165542241838</v>
+        <v>5.663111197166827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.045104006078424</v>
+        <v>0.9794125352516312</v>
       </c>
       <c r="D7">
-        <v>1.04019328391483</v>
+        <v>1.011044978143908</v>
       </c>
       <c r="E7">
-        <v>1.053533190095749</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="F7">
-        <v>1.045104006078424</v>
+        <v>0.9794125352516312</v>
       </c>
       <c r="G7">
-        <v>1.010624560522241</v>
+        <v>1.193326523906265</v>
       </c>
       <c r="H7">
-        <v>1.009145248540608</v>
+        <v>0.977685825773113</v>
       </c>
       <c r="I7">
-        <v>1.00919455903098</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="J7">
-        <v>1.04019328391483</v>
+        <v>1.062605731105803</v>
       </c>
       <c r="K7">
-        <v>1.045104006078424</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="L7">
-        <v>1.053533190095749</v>
+        <v>1.011044978143908</v>
       </c>
       <c r="M7">
-        <v>1.046863237005289</v>
+        <v>0.9952287566977698</v>
       </c>
       <c r="N7">
-        <v>1.046863237005289</v>
+        <v>0.9952287566977698</v>
       </c>
       <c r="O7">
-        <v>1.034290574183729</v>
+        <v>0.9893811130562176</v>
       </c>
       <c r="P7">
-        <v>1.046276826696334</v>
+        <v>1.05299995856734</v>
       </c>
       <c r="Q7">
-        <v>1.046276826696334</v>
+        <v>1.05299995856734</v>
       </c>
       <c r="R7">
-        <v>1.045983621541857</v>
+        <v>1.081885559502125</v>
       </c>
       <c r="S7">
-        <v>1.045983621541857</v>
+        <v>1.081885559502125</v>
       </c>
       <c r="T7">
-        <v>1.027965808030472</v>
+        <v>1.0654363260812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.113362445632195</v>
+        <v>1.103769990548849</v>
       </c>
       <c r="D8">
-        <v>1.027401498316653</v>
+        <v>1.068150624251218</v>
       </c>
       <c r="E8">
-        <v>1.106270822999039</v>
+        <v>1.160082384718444</v>
       </c>
       <c r="F8">
-        <v>1.113362445632195</v>
+        <v>1.103769990548849</v>
       </c>
       <c r="G8">
-        <v>1.013130123477889</v>
+        <v>0.8667061198083762</v>
       </c>
       <c r="H8">
-        <v>1.020841389943508</v>
+        <v>1.0296437082431</v>
       </c>
       <c r="I8">
-        <v>1.002626378079932</v>
+        <v>1.160082384718444</v>
       </c>
       <c r="J8">
-        <v>1.027401498316653</v>
+        <v>1.019598478426555</v>
       </c>
       <c r="K8">
-        <v>1.113362445632195</v>
+        <v>1.160082384718444</v>
       </c>
       <c r="L8">
-        <v>1.106270822999039</v>
+        <v>1.068150624251218</v>
       </c>
       <c r="M8">
-        <v>1.066836160657846</v>
+        <v>1.085960307400033</v>
       </c>
       <c r="N8">
-        <v>1.066836160657846</v>
+        <v>1.085960307400033</v>
       </c>
       <c r="O8">
-        <v>1.051504570419733</v>
+        <v>1.067188107681056</v>
       </c>
       <c r="P8">
-        <v>1.082344922315962</v>
+        <v>1.110667666506171</v>
       </c>
       <c r="Q8">
-        <v>1.082344922315962</v>
+        <v>1.110667666506171</v>
       </c>
       <c r="R8">
-        <v>1.090099303145021</v>
+        <v>1.123021346059239</v>
       </c>
       <c r="S8">
-        <v>1.090099303145021</v>
+        <v>1.123021346059239</v>
       </c>
       <c r="T8">
-        <v>1.047272109741536</v>
+        <v>1.041325217666091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.350648745440417</v>
+        <v>1.272736994602419</v>
       </c>
       <c r="D9">
-        <v>0.9743829826217915</v>
+        <v>1.185461344600689</v>
       </c>
       <c r="E9">
-        <v>1.074070362225052</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="F9">
-        <v>1.350648745440417</v>
+        <v>1.272736994602419</v>
       </c>
       <c r="G9">
-        <v>1.061654068355533</v>
+        <v>1.510153810359975</v>
       </c>
       <c r="H9">
-        <v>1.007464458402296</v>
+        <v>0.8964547595121962</v>
       </c>
       <c r="I9">
-        <v>0.9600455922216716</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="J9">
-        <v>0.9743829826217915</v>
+        <v>1.125997325644179</v>
       </c>
       <c r="K9">
-        <v>1.350648745440417</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="L9">
-        <v>1.074070362225052</v>
+        <v>1.185461344600689</v>
       </c>
       <c r="M9">
-        <v>1.024226672423422</v>
+        <v>1.229099169601554</v>
       </c>
       <c r="N9">
-        <v>1.024226672423422</v>
+        <v>1.229099169601554</v>
       </c>
       <c r="O9">
-        <v>1.018639267749713</v>
+        <v>1.118217699571768</v>
       </c>
       <c r="P9">
-        <v>1.133034030095754</v>
+        <v>1.304505652368664</v>
       </c>
       <c r="Q9">
-        <v>1.133034030095754</v>
+        <v>1.304505652368664</v>
       </c>
       <c r="R9">
-        <v>1.187437708931919</v>
+        <v>1.342208893752218</v>
       </c>
       <c r="S9">
-        <v>1.187437708931919</v>
+        <v>1.342208893752218</v>
       </c>
       <c r="T9">
-        <v>1.07137770154446</v>
+        <v>1.241020475437057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.72016666264136</v>
+        <v>0.28405236320699</v>
       </c>
       <c r="D10">
-        <v>0.9790552688771149</v>
+        <v>32.00062575141133</v>
       </c>
       <c r="E10">
-        <v>1.38202567691214</v>
+        <v>0.4379277714502237</v>
       </c>
       <c r="F10">
-        <v>1.72016666264136</v>
+        <v>0.28405236320699</v>
       </c>
       <c r="G10">
-        <v>1.27769069858658</v>
+        <v>0.4405136609192016</v>
       </c>
       <c r="H10">
-        <v>1.042070324428267</v>
+        <v>0.4739049633484492</v>
       </c>
       <c r="I10">
-        <v>1.140663995951151</v>
+        <v>0.4379277714502237</v>
       </c>
       <c r="J10">
-        <v>0.9790552688771149</v>
+        <v>0.5317723494364042</v>
       </c>
       <c r="K10">
-        <v>1.72016666264136</v>
+        <v>0.4379277714502237</v>
       </c>
       <c r="L10">
-        <v>1.38202567691214</v>
+        <v>32.00062575141133</v>
       </c>
       <c r="M10">
-        <v>1.180540472894627</v>
+        <v>16.14233905730916</v>
       </c>
       <c r="N10">
-        <v>1.180540472894627</v>
+        <v>16.14233905730916</v>
       </c>
       <c r="O10">
-        <v>1.134383756739174</v>
+        <v>10.91952769265559</v>
       </c>
       <c r="P10">
-        <v>1.360415869476872</v>
+        <v>10.90753529535618</v>
       </c>
       <c r="Q10">
-        <v>1.360415869476872</v>
+        <v>10.90753529535618</v>
       </c>
       <c r="R10">
-        <v>1.450353567767994</v>
+        <v>8.290133414379692</v>
       </c>
       <c r="S10">
-        <v>1.450353567767994</v>
+        <v>8.290133414379692</v>
       </c>
       <c r="T10">
-        <v>1.256945437899436</v>
+        <v>5.694799476628766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.302690373690194</v>
+        <v>0.795394150187703</v>
       </c>
       <c r="D11">
-        <v>0.2403595378022908</v>
+        <v>1.016166869002975</v>
       </c>
       <c r="E11">
-        <v>1.915814228467983</v>
+        <v>0.9402025564785124</v>
       </c>
       <c r="F11">
-        <v>2.302690373690194</v>
+        <v>0.795394150187703</v>
       </c>
       <c r="G11">
-        <v>1.01217303556299</v>
+        <v>2.926571817301505</v>
       </c>
       <c r="H11">
-        <v>0.6721192551305831</v>
+        <v>0.7723519776580139</v>
       </c>
       <c r="I11">
-        <v>1.071738085100185</v>
+        <v>0.9402025564785124</v>
       </c>
       <c r="J11">
-        <v>0.2403595378022908</v>
+        <v>0.9811741077033729</v>
       </c>
       <c r="K11">
-        <v>2.302690373690194</v>
+        <v>0.9402025564785124</v>
       </c>
       <c r="L11">
-        <v>1.915814228467983</v>
+        <v>1.016166869002975</v>
       </c>
       <c r="M11">
-        <v>1.078086883135137</v>
+        <v>0.9057805095953391</v>
       </c>
       <c r="N11">
-        <v>1.078086883135137</v>
+        <v>0.9057805095953391</v>
       </c>
       <c r="O11">
-        <v>0.9427643404669523</v>
+        <v>0.8613043322828974</v>
       </c>
       <c r="P11">
-        <v>1.486288046653489</v>
+        <v>0.9172545252230635</v>
       </c>
       <c r="Q11">
-        <v>1.486288046653489</v>
+        <v>0.9172545252230636</v>
       </c>
       <c r="R11">
-        <v>1.690388628412666</v>
+        <v>0.9229915330369258</v>
       </c>
       <c r="S11">
-        <v>1.690388628412666</v>
+        <v>0.9229915330369258</v>
       </c>
       <c r="T11">
-        <v>1.202482419292371</v>
+        <v>1.238643579722014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0002877035861823895</v>
+        <v>0.5429070319449473</v>
       </c>
       <c r="D12">
-        <v>0.0005322982825336745</v>
+        <v>5.692214950044568</v>
       </c>
       <c r="E12">
-        <v>1.399240406789605</v>
+        <v>0.944548731820381</v>
       </c>
       <c r="F12">
-        <v>0.0002877035861823895</v>
+        <v>0.5429070319449473</v>
       </c>
       <c r="G12">
-        <v>-0.001559141307159514</v>
+        <v>0.9936110687466966</v>
       </c>
       <c r="H12">
-        <v>2.059291498268633</v>
+        <v>0.925083479334157</v>
       </c>
       <c r="I12">
-        <v>1.048348205524001</v>
+        <v>0.944548731820381</v>
       </c>
       <c r="J12">
-        <v>0.0005322982825336745</v>
+        <v>1.043247996025885</v>
       </c>
       <c r="K12">
-        <v>0.0002877035861823895</v>
+        <v>0.944548731820381</v>
       </c>
       <c r="L12">
-        <v>1.399240406789605</v>
+        <v>5.692214950044568</v>
       </c>
       <c r="M12">
-        <v>0.6998863525360692</v>
+        <v>3.117560990994758</v>
       </c>
       <c r="N12">
-        <v>0.6998863525360692</v>
+        <v>3.117560990994758</v>
       </c>
       <c r="O12">
-        <v>1.15302140111359</v>
+        <v>2.386735153774558</v>
       </c>
       <c r="P12">
-        <v>0.4666868028861069</v>
+        <v>2.393223571269966</v>
       </c>
       <c r="Q12">
-        <v>0.4666868028861069</v>
+        <v>2.393223571269965</v>
       </c>
       <c r="R12">
-        <v>0.3500870280611258</v>
+        <v>2.031054861407569</v>
       </c>
       <c r="S12">
-        <v>0.3500870280611258</v>
+        <v>2.031054861407569</v>
       </c>
       <c r="T12">
-        <v>0.7510234951906324</v>
+        <v>1.690268876319439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.10263842090298</v>
+        <v>0.8117114763998808</v>
       </c>
       <c r="D13">
-        <v>4.266821309831471</v>
+        <v>1.018889264823894</v>
       </c>
       <c r="E13">
-        <v>0.02000177124010596</v>
+        <v>1.143698839370197</v>
       </c>
       <c r="F13">
-        <v>3.10263842090298</v>
+        <v>0.8117114763998808</v>
       </c>
       <c r="G13">
-        <v>3.155339425965614</v>
+        <v>0.9224402350007244</v>
       </c>
       <c r="H13">
-        <v>1.472654676476382</v>
+        <v>1.234790906921701</v>
       </c>
       <c r="I13">
-        <v>0.6719815952770194</v>
+        <v>1.143698839370197</v>
       </c>
       <c r="J13">
-        <v>4.266821309831471</v>
+        <v>0.9875043861150895</v>
       </c>
       <c r="K13">
-        <v>3.10263842090298</v>
+        <v>1.143698839370197</v>
       </c>
       <c r="L13">
-        <v>0.02000177124010596</v>
+        <v>1.018889264823894</v>
       </c>
       <c r="M13">
-        <v>2.143411540535789</v>
+        <v>0.9153003706118872</v>
       </c>
       <c r="N13">
-        <v>2.143411540535789</v>
+        <v>0.9153003706118872</v>
       </c>
       <c r="O13">
-        <v>1.919825919182653</v>
+        <v>1.021797216048492</v>
       </c>
       <c r="P13">
-        <v>2.463153833991519</v>
+        <v>0.991433193531324</v>
       </c>
       <c r="Q13">
-        <v>2.463153833991519</v>
+        <v>0.991433193531324</v>
       </c>
       <c r="R13">
-        <v>2.623024980719384</v>
+        <v>1.029499604991042</v>
       </c>
       <c r="S13">
-        <v>2.623024980719384</v>
+        <v>1.029499604991042</v>
       </c>
       <c r="T13">
-        <v>2.114906199948929</v>
+        <v>1.019839184771914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1366769654221979</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="D14">
-        <v>-0.004538901905293548</v>
+        <v>60.56370400000006</v>
       </c>
       <c r="E14">
-        <v>0.2444052323227779</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="F14">
-        <v>0.1366769654221979</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="G14">
-        <v>2.807453434814119</v>
+        <v>-0.01613836199999998</v>
       </c>
       <c r="H14">
-        <v>0.2774913946404211</v>
+        <v>0.005157209900000002</v>
       </c>
       <c r="I14">
-        <v>1.817098418793493</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="J14">
-        <v>-0.004538901905293548</v>
+        <v>-0.0002910051300000005</v>
       </c>
       <c r="K14">
-        <v>0.1366769654221979</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="L14">
-        <v>0.2444052323227779</v>
+        <v>60.56370400000006</v>
       </c>
       <c r="M14">
-        <v>0.1199331652087422</v>
+        <v>30.28136324560003</v>
       </c>
       <c r="N14">
-        <v>0.1199331652087422</v>
+        <v>30.28136324560003</v>
       </c>
       <c r="O14">
-        <v>0.1724525750193018</v>
+        <v>20.18929456703335</v>
       </c>
       <c r="P14">
-        <v>0.1255144319465608</v>
+        <v>20.18349517840002</v>
       </c>
       <c r="Q14">
-        <v>0.1255144319465608</v>
+        <v>20.18349517840002</v>
       </c>
       <c r="R14">
-        <v>0.12830506531547</v>
+        <v>15.13456114480002</v>
       </c>
       <c r="S14">
-        <v>0.12830506531547</v>
+        <v>15.13456114480002</v>
       </c>
       <c r="T14">
-        <v>0.8797644240146192</v>
+        <v>10.08986889632834</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.08870295097191688</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D15">
-        <v>0.001693800555954466</v>
+        <v>-0.012240956</v>
       </c>
       <c r="E15">
-        <v>0.03517713594029286</v>
+        <v>121.14151</v>
       </c>
       <c r="F15">
-        <v>0.08870295097191688</v>
+        <v>0.00070900843</v>
       </c>
       <c r="G15">
-        <v>0.0009285292887252528</v>
+        <v>0.010282672</v>
       </c>
       <c r="H15">
-        <v>0.1736462014875939</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="I15">
-        <v>0.8454591965976241</v>
+        <v>121.14151</v>
       </c>
       <c r="J15">
-        <v>0.001693800555954466</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="K15">
-        <v>0.08870295097191688</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>0.03517713594029286</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.01843546824812366</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N15">
-        <v>0.01843546824812366</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O15">
-        <v>0.07017237932794707</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P15">
-        <v>0.04185796248938808</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q15">
-        <v>0.04185796248938808</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R15">
-        <v>0.05356920961002028</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S15">
-        <v>0.05356920961002028</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T15">
-        <v>0.1909346358070179</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.023338639311004</v>
+        <v>0.011910205</v>
       </c>
       <c r="D16">
-        <v>1.049947903655871</v>
+        <v>-0.016138362</v>
       </c>
       <c r="E16">
-        <v>1.05879427480686</v>
+        <v>0.010282672</v>
       </c>
       <c r="F16">
-        <v>1.023338639311004</v>
+        <v>0.011910205</v>
       </c>
       <c r="G16">
-        <v>1.04609680792931</v>
+        <v>181.71412</v>
       </c>
       <c r="H16">
-        <v>1.020706845841391</v>
+        <v>-0.0048753252</v>
       </c>
       <c r="I16">
-        <v>1.004812452600996</v>
+        <v>0.010282672</v>
       </c>
       <c r="J16">
-        <v>1.049947903655871</v>
+        <v>-0.0028218379</v>
       </c>
       <c r="K16">
-        <v>1.023338639311004</v>
+        <v>0.010282672</v>
       </c>
       <c r="L16">
-        <v>1.05879427480686</v>
+        <v>-0.016138362</v>
       </c>
       <c r="M16">
-        <v>1.054371089231366</v>
+        <v>-0.0021140785</v>
       </c>
       <c r="N16">
-        <v>1.054371089231366</v>
+        <v>-0.0021140785</v>
       </c>
       <c r="O16">
-        <v>1.043149674768041</v>
+        <v>-0.003034494066666666</v>
       </c>
       <c r="P16">
-        <v>1.044026939257912</v>
+        <v>0.002018171666666667</v>
       </c>
       <c r="Q16">
-        <v>1.044026939257912</v>
+        <v>0.002018171666666667</v>
       </c>
       <c r="R16">
-        <v>1.038854864271185</v>
+        <v>0.00408429675</v>
       </c>
       <c r="S16">
-        <v>1.038854864271185</v>
+        <v>0.00408429675</v>
       </c>
       <c r="T16">
-        <v>1.033949487357572</v>
+        <v>30.28541289198334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.160082384718444</v>
+        <v>-0.0039809339</v>
       </c>
       <c r="D17">
-        <v>1.103769990548851</v>
+        <v>-0.0061827927</v>
       </c>
       <c r="E17">
-        <v>1.068150624251218</v>
+        <v>2.827508</v>
       </c>
       <c r="F17">
-        <v>1.160082384718444</v>
+        <v>-0.0039809339</v>
       </c>
       <c r="G17">
-        <v>0.8667061198083735</v>
+        <v>-0.0047377087</v>
       </c>
       <c r="H17">
-        <v>1.029643708243101</v>
+        <v>0.010148807</v>
       </c>
       <c r="I17">
-        <v>1.019598478426554</v>
+        <v>2.827508</v>
       </c>
       <c r="J17">
-        <v>1.103769990548851</v>
+        <v>-0.01284827</v>
       </c>
       <c r="K17">
-        <v>1.160082384718444</v>
+        <v>2.827508</v>
       </c>
       <c r="L17">
-        <v>1.068150624251218</v>
+        <v>-0.0061827927</v>
       </c>
       <c r="M17">
-        <v>1.085960307400034</v>
+        <v>-0.0050818633</v>
       </c>
       <c r="N17">
-        <v>1.085960307400034</v>
+        <v>-0.0050818633</v>
       </c>
       <c r="O17">
-        <v>1.067188107681057</v>
+        <v>-4.973199999999909E-06</v>
       </c>
       <c r="P17">
-        <v>1.110667666506171</v>
+        <v>0.9391147578</v>
       </c>
       <c r="Q17">
-        <v>1.110667666506171</v>
+        <v>0.9391147578</v>
       </c>
       <c r="R17">
-        <v>1.123021346059239</v>
+        <v>1.41121306835</v>
       </c>
       <c r="S17">
-        <v>1.123021346059239</v>
+        <v>1.41121306835</v>
       </c>
       <c r="T17">
-        <v>1.04132521766609</v>
+        <v>0.4683178502833333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.659583141224379</v>
+        <v>7.397461926027393E-05</v>
       </c>
       <c r="D18">
-        <v>1.618103377111101</v>
+        <v>0.002368008684931506</v>
       </c>
       <c r="E18">
-        <v>1.037934399144972</v>
+        <v>5.398213951819177</v>
       </c>
       <c r="F18">
-        <v>2.659583141224379</v>
+        <v>7.397461926027393E-05</v>
       </c>
       <c r="G18">
-        <v>0.9743983017478026</v>
+        <v>5.602081230169865</v>
       </c>
       <c r="H18">
-        <v>0.9319468683073706</v>
+        <v>0.001249337267123289</v>
       </c>
       <c r="I18">
-        <v>0.994008454127738</v>
+        <v>5.398213951819177</v>
       </c>
       <c r="J18">
-        <v>1.618103377111101</v>
+        <v>1.700647374421918</v>
       </c>
       <c r="K18">
-        <v>2.659583141224379</v>
+        <v>5.398213951819177</v>
       </c>
       <c r="L18">
-        <v>1.037934399144972</v>
+        <v>0.002368008684931506</v>
       </c>
       <c r="M18">
-        <v>1.328018888128037</v>
+        <v>0.00122099165209589</v>
       </c>
       <c r="N18">
-        <v>1.328018888128037</v>
+        <v>0.00122099165209589</v>
       </c>
       <c r="O18">
-        <v>1.195994881521148</v>
+        <v>0.001230440190438356</v>
       </c>
       <c r="P18">
-        <v>1.771873639160151</v>
+        <v>1.800218645041123</v>
       </c>
       <c r="Q18">
-        <v>1.771873639160151</v>
+        <v>1.800218645041123</v>
       </c>
       <c r="R18">
-        <v>1.993801014676208</v>
+        <v>2.699717471735637</v>
       </c>
       <c r="S18">
-        <v>1.993801014676208</v>
+        <v>2.699717471735637</v>
       </c>
       <c r="T18">
-        <v>1.369329090277227</v>
+        <v>2.117438979497046</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.017756255500315</v>
+        <v>7.1541481669</v>
       </c>
       <c r="D19">
-        <v>0.4478881063598256</v>
+        <v>5.160641614732109</v>
       </c>
       <c r="E19">
-        <v>1.491000122320962</v>
+        <v>3.576971794984737</v>
       </c>
       <c r="F19">
-        <v>3.017756255500315</v>
+        <v>7.1541481669</v>
       </c>
       <c r="G19">
-        <v>0.7620836300961501</v>
+        <v>15.48614188696632</v>
       </c>
       <c r="H19">
-        <v>0.7364662864100542</v>
+        <v>0.001693667789473684</v>
       </c>
       <c r="I19">
-        <v>1.043683420542332</v>
+        <v>3.576971794984737</v>
       </c>
       <c r="J19">
-        <v>0.4478881063598256</v>
+        <v>-0.006934997314736842</v>
       </c>
       <c r="K19">
-        <v>3.017756255500315</v>
+        <v>3.576971794984737</v>
       </c>
       <c r="L19">
-        <v>1.491000122320962</v>
+        <v>5.160641614732109</v>
       </c>
       <c r="M19">
-        <v>0.9694441143403938</v>
+        <v>6.157394890816054</v>
       </c>
       <c r="N19">
-        <v>0.9694441143403938</v>
+        <v>6.157394890816054</v>
       </c>
       <c r="O19">
-        <v>0.8917848383636139</v>
+        <v>4.105494483140527</v>
       </c>
       <c r="P19">
-        <v>1.652214828060367</v>
+        <v>5.297253858872281</v>
       </c>
       <c r="Q19">
-        <v>1.652214828060367</v>
+        <v>5.297253858872282</v>
       </c>
       <c r="R19">
-        <v>1.993600184920354</v>
+        <v>4.867183342900396</v>
       </c>
       <c r="S19">
-        <v>1.993600184920354</v>
+        <v>4.867183342900396</v>
       </c>
       <c r="T19">
-        <v>1.24981297020494</v>
+        <v>5.228777022342983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.007059912923684212</v>
+      </c>
+      <c r="D20">
+        <v>6.978976538800003</v>
+      </c>
+      <c r="E20">
+        <v>13.95229605936842</v>
+      </c>
+      <c r="F20">
+        <v>0.007059912923684212</v>
+      </c>
+      <c r="G20">
+        <v>0.008372386005263159</v>
+      </c>
+      <c r="H20">
+        <v>0.001535044043157895</v>
+      </c>
+      <c r="I20">
+        <v>13.95229605936842</v>
+      </c>
+      <c r="J20">
+        <v>5.221143802310525</v>
+      </c>
+      <c r="K20">
+        <v>13.95229605936842</v>
+      </c>
+      <c r="L20">
+        <v>6.978976538800003</v>
+      </c>
+      <c r="M20">
+        <v>3.493018225861844</v>
+      </c>
+      <c r="N20">
+        <v>3.493018225861844</v>
+      </c>
+      <c r="O20">
+        <v>2.329190498588948</v>
+      </c>
+      <c r="P20">
+        <v>6.979444170364037</v>
+      </c>
+      <c r="Q20">
+        <v>6.979444170364037</v>
+      </c>
+      <c r="R20">
+        <v>8.722657142615134</v>
+      </c>
+      <c r="S20">
+        <v>8.722657142615134</v>
+      </c>
+      <c r="T20">
+        <v>4.361563957241843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-0.004538901905293547</v>
+      </c>
+      <c r="D21">
+        <v>0.2444052323227772</v>
+      </c>
+      <c r="E21">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="F21">
+        <v>-0.004538901905293547</v>
+      </c>
+      <c r="G21">
+        <v>2.807453434814114</v>
+      </c>
+      <c r="H21">
+        <v>0.277491394640421</v>
+      </c>
+      <c r="I21">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="J21">
+        <v>1.817098418793493</v>
+      </c>
+      <c r="K21">
+        <v>0.1366769654221978</v>
+      </c>
+      <c r="L21">
+        <v>0.2444052323227772</v>
+      </c>
+      <c r="M21">
+        <v>0.1199331652087418</v>
+      </c>
+      <c r="N21">
+        <v>0.1199331652087418</v>
+      </c>
+      <c r="O21">
+        <v>0.1724525750193016</v>
+      </c>
+      <c r="P21">
+        <v>0.1255144319465605</v>
+      </c>
+      <c r="Q21">
+        <v>0.1255144319465605</v>
+      </c>
+      <c r="R21">
+        <v>0.1283050653154698</v>
+      </c>
+      <c r="S21">
+        <v>0.1283050653154698</v>
+      </c>
+      <c r="T21">
+        <v>0.8797644240146182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.001693800555954467</v>
+      </c>
+      <c r="D22">
+        <v>0.03517713594029284</v>
+      </c>
+      <c r="E22">
+        <v>0.08870295097191687</v>
+      </c>
+      <c r="F22">
+        <v>0.001693800555954467</v>
+      </c>
+      <c r="G22">
+        <v>0.0009285292887252522</v>
+      </c>
+      <c r="H22">
+        <v>0.1736462014875939</v>
+      </c>
+      <c r="I22">
+        <v>0.08870295097191687</v>
+      </c>
+      <c r="J22">
+        <v>0.8454591965976243</v>
+      </c>
+      <c r="K22">
+        <v>0.08870295097191687</v>
+      </c>
+      <c r="L22">
+        <v>0.03517713594029284</v>
+      </c>
+      <c r="M22">
+        <v>0.01843546824812365</v>
+      </c>
+      <c r="N22">
+        <v>0.01843546824812365</v>
+      </c>
+      <c r="O22">
+        <v>0.07017237932794707</v>
+      </c>
+      <c r="P22">
+        <v>0.04185796248938806</v>
+      </c>
+      <c r="Q22">
+        <v>0.04185796248938806</v>
+      </c>
+      <c r="R22">
+        <v>0.05356920961002026</v>
+      </c>
+      <c r="S22">
+        <v>0.05356920961002026</v>
+      </c>
+      <c r="T22">
+        <v>0.1909346358070179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.000532298282533667</v>
+      </c>
+      <c r="D23">
+        <v>1.399240406789604</v>
+      </c>
+      <c r="E23">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="F23">
+        <v>0.000532298282533667</v>
+      </c>
+      <c r="G23">
+        <v>-0.001559141307159513</v>
+      </c>
+      <c r="H23">
+        <v>2.059291498268636</v>
+      </c>
+      <c r="I23">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="J23">
+        <v>1.048348205524001</v>
+      </c>
+      <c r="K23">
+        <v>0.0002877035861823883</v>
+      </c>
+      <c r="L23">
+        <v>1.399240406789604</v>
+      </c>
+      <c r="M23">
+        <v>0.6998863525360688</v>
+      </c>
+      <c r="N23">
+        <v>0.6998863525360688</v>
+      </c>
+      <c r="O23">
+        <v>1.153021401113591</v>
+      </c>
+      <c r="P23">
+        <v>0.4666868028861066</v>
+      </c>
+      <c r="Q23">
+        <v>0.4666868028861066</v>
+      </c>
+      <c r="R23">
+        <v>0.3500870280611256</v>
+      </c>
+      <c r="S23">
+        <v>0.3500870280611256</v>
+      </c>
+      <c r="T23">
+        <v>0.7510234951906328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4.266821309831473</v>
+      </c>
+      <c r="D24">
+        <v>0.02000177124010596</v>
+      </c>
+      <c r="E24">
+        <v>3.102638420902982</v>
+      </c>
+      <c r="F24">
+        <v>4.266821309831473</v>
+      </c>
+      <c r="G24">
+        <v>3.155339425965618</v>
+      </c>
+      <c r="H24">
+        <v>1.472654676476381</v>
+      </c>
+      <c r="I24">
+        <v>3.102638420902982</v>
+      </c>
+      <c r="J24">
+        <v>0.6719815952770193</v>
+      </c>
+      <c r="K24">
+        <v>3.102638420902982</v>
+      </c>
+      <c r="L24">
+        <v>0.02000177124010596</v>
+      </c>
+      <c r="M24">
+        <v>2.143411540535789</v>
+      </c>
+      <c r="N24">
+        <v>2.143411540535789</v>
+      </c>
+      <c r="O24">
+        <v>1.919825919182653</v>
+      </c>
+      <c r="P24">
+        <v>2.46315383399152</v>
+      </c>
+      <c r="Q24">
+        <v>2.46315383399152</v>
+      </c>
+      <c r="R24">
+        <v>2.623024980719386</v>
+      </c>
+      <c r="S24">
+        <v>2.623024980719386</v>
+      </c>
+      <c r="T24">
+        <v>2.11490619994893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-0.0004948253013164551</v>
+      </c>
+      <c r="D25">
+        <v>0.001281277431758251</v>
+      </c>
+      <c r="E25">
+        <v>0.293487151043928</v>
+      </c>
+      <c r="F25">
+        <v>-0.0004948253013164551</v>
+      </c>
+      <c r="G25">
+        <v>-0.0004099603055420438</v>
+      </c>
+      <c r="H25">
+        <v>-0.0007043087674865656</v>
+      </c>
+      <c r="I25">
+        <v>0.293487151043928</v>
+      </c>
+      <c r="J25">
+        <v>1.052921191593845</v>
+      </c>
+      <c r="K25">
+        <v>0.293487151043928</v>
+      </c>
+      <c r="L25">
+        <v>0.001281277431758251</v>
+      </c>
+      <c r="M25">
+        <v>0.0003932260652208978</v>
+      </c>
+      <c r="N25">
+        <v>0.0003932260652208978</v>
+      </c>
+      <c r="O25">
+        <v>2.738112098507671E-05</v>
+      </c>
+      <c r="P25">
+        <v>0.09809120105812329</v>
+      </c>
+      <c r="Q25">
+        <v>0.09809120105812329</v>
+      </c>
+      <c r="R25">
+        <v>0.1469401885545745</v>
+      </c>
+      <c r="S25">
+        <v>0.1469401885545745</v>
+      </c>
+      <c r="T25">
+        <v>0.224346754282531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.001238321325377139</v>
+      </c>
+      <c r="D26">
+        <v>2.673399985149283</v>
+      </c>
+      <c r="E26">
+        <v>-0.001287781793007508</v>
+      </c>
+      <c r="F26">
+        <v>0.001238321325377139</v>
+      </c>
+      <c r="G26">
+        <v>0.9006245891943933</v>
+      </c>
+      <c r="H26">
+        <v>1.91522109813145</v>
+      </c>
+      <c r="I26">
+        <v>-0.001287781793007508</v>
+      </c>
+      <c r="J26">
+        <v>1.002081670235646</v>
+      </c>
+      <c r="K26">
+        <v>-0.001287781793007508</v>
+      </c>
+      <c r="L26">
+        <v>2.673399985149283</v>
+      </c>
+      <c r="M26">
+        <v>1.33731915323733</v>
+      </c>
+      <c r="N26">
+        <v>1.33731915323733</v>
+      </c>
+      <c r="O26">
+        <v>1.529953134868703</v>
+      </c>
+      <c r="P26">
+        <v>0.8911168415605508</v>
+      </c>
+      <c r="Q26">
+        <v>0.8911168415605508</v>
+      </c>
+      <c r="R26">
+        <v>0.6680156857221612</v>
+      </c>
+      <c r="S26">
+        <v>0.6680156857221612</v>
+      </c>
+      <c r="T26">
+        <v>1.081879647040524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2.350424516406231</v>
+      </c>
+      <c r="D27">
+        <v>6.944243907281651</v>
+      </c>
+      <c r="E27">
+        <v>12.76828544186249</v>
+      </c>
+      <c r="F27">
+        <v>2.350424516406231</v>
+      </c>
+      <c r="G27">
+        <v>-0.0009924414097307243</v>
+      </c>
+      <c r="H27">
+        <v>0.002953520400257006</v>
+      </c>
+      <c r="I27">
+        <v>12.76828544186249</v>
+      </c>
+      <c r="J27">
+        <v>4.407452260741914</v>
+      </c>
+      <c r="K27">
+        <v>12.76828544186249</v>
+      </c>
+      <c r="L27">
+        <v>6.944243907281651</v>
+      </c>
+      <c r="M27">
+        <v>4.64733421184394</v>
+      </c>
+      <c r="N27">
+        <v>4.64733421184394</v>
+      </c>
+      <c r="O27">
+        <v>3.099207314696046</v>
+      </c>
+      <c r="P27">
+        <v>7.354317955183458</v>
+      </c>
+      <c r="Q27">
+        <v>7.354317955183459</v>
+      </c>
+      <c r="R27">
+        <v>8.707809826853218</v>
+      </c>
+      <c r="S27">
+        <v>8.707809826853218</v>
+      </c>
+      <c r="T27">
+        <v>4.412061200880469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>-0.0007117104341935011</v>
+      </c>
+      <c r="D28">
+        <v>3.671086894668842</v>
+      </c>
+      <c r="E28">
+        <v>17.94273114094153</v>
+      </c>
+      <c r="F28">
+        <v>-0.0007117104341935011</v>
+      </c>
+      <c r="G28">
+        <v>0.004151722341976105</v>
+      </c>
+      <c r="H28">
+        <v>2.034128109369183</v>
+      </c>
+      <c r="I28">
+        <v>17.94273114094153</v>
+      </c>
+      <c r="J28">
+        <v>0.4621603378234242</v>
+      </c>
+      <c r="K28">
+        <v>17.94273114094153</v>
+      </c>
+      <c r="L28">
+        <v>3.671086894668842</v>
+      </c>
+      <c r="M28">
+        <v>1.835187592117324</v>
+      </c>
+      <c r="N28">
+        <v>1.835187592117324</v>
+      </c>
+      <c r="O28">
+        <v>1.901501097867944</v>
+      </c>
+      <c r="P28">
+        <v>7.204368775058726</v>
+      </c>
+      <c r="Q28">
+        <v>7.204368775058728</v>
+      </c>
+      <c r="R28">
+        <v>9.888959366529429</v>
+      </c>
+      <c r="S28">
+        <v>9.888959366529429</v>
+      </c>
+      <c r="T28">
+        <v>4.018924415785128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.004621756573634974</v>
+      </c>
+      <c r="D29">
+        <v>2.012388824979436</v>
+      </c>
+      <c r="E29">
+        <v>40.36398890704374</v>
+      </c>
+      <c r="F29">
+        <v>0.004621756573634974</v>
+      </c>
+      <c r="G29">
+        <v>0.01132792651291777</v>
+      </c>
+      <c r="H29">
+        <v>2.27727298262311</v>
+      </c>
+      <c r="I29">
+        <v>40.36398890704374</v>
+      </c>
+      <c r="J29">
+        <v>-0.003380187973948588</v>
+      </c>
+      <c r="K29">
+        <v>40.36398890704374</v>
+      </c>
+      <c r="L29">
+        <v>2.012388824979436</v>
+      </c>
+      <c r="M29">
+        <v>1.008505290776536</v>
+      </c>
+      <c r="N29">
+        <v>1.008505290776536</v>
+      </c>
+      <c r="O29">
+        <v>1.431427854725394</v>
+      </c>
+      <c r="P29">
+        <v>14.12699982953227</v>
+      </c>
+      <c r="Q29">
+        <v>14.12699982953227</v>
+      </c>
+      <c r="R29">
+        <v>20.68624709891014</v>
+      </c>
+      <c r="S29">
+        <v>20.68624709891014</v>
+      </c>
+      <c r="T29">
+        <v>7.444370034959817</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8761505387600875</v>
+        <v>0.8708803560087991</v>
       </c>
       <c r="D4">
-        <v>1.076115324506955</v>
+        <v>2.767453490587862</v>
       </c>
       <c r="E4">
-        <v>0.9483741113112045</v>
+        <v>0.8292529952181955</v>
       </c>
       <c r="F4">
-        <v>0.8761505387600875</v>
+        <v>0.8708803560087991</v>
       </c>
       <c r="G4">
-        <v>3.056244653791921</v>
+        <v>1.044466720875089</v>
       </c>
       <c r="H4">
-        <v>0.7864579448109296</v>
+        <v>0.8848084159707551</v>
       </c>
       <c r="I4">
-        <v>0.9483741113112045</v>
+        <v>0.8292529952181955</v>
       </c>
       <c r="J4">
-        <v>0.9598940213841621</v>
+        <v>1.051274611316559</v>
       </c>
       <c r="K4">
-        <v>0.9483741113112045</v>
+        <v>0.8292529952181955</v>
       </c>
       <c r="L4">
-        <v>1.076115324506955</v>
+        <v>2.767453490587862</v>
       </c>
       <c r="M4">
-        <v>0.976132931633521</v>
+        <v>1.81916692329833</v>
       </c>
       <c r="N4">
-        <v>0.976132931633521</v>
+        <v>1.81916692329833</v>
       </c>
       <c r="O4">
-        <v>0.9129079360259905</v>
+        <v>1.507714087522472</v>
       </c>
       <c r="P4">
-        <v>0.9668799915260822</v>
+        <v>1.489195613938285</v>
       </c>
       <c r="Q4">
-        <v>0.9668799915260822</v>
+        <v>1.489195613938286</v>
       </c>
       <c r="R4">
-        <v>0.9622535214723628</v>
+        <v>1.324209959258263</v>
       </c>
       <c r="S4">
-        <v>0.9622535214723628</v>
+        <v>1.324209959258263</v>
       </c>
       <c r="T4">
-        <v>1.283872765760877</v>
+        <v>1.241356098329543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8149964118701495</v>
+        <v>0.007663386963217333</v>
       </c>
       <c r="D5">
-        <v>4.168011907277007</v>
+        <v>4.321598346512828</v>
       </c>
       <c r="E5">
-        <v>1.145250421638142</v>
+        <v>12.41097219008164</v>
       </c>
       <c r="F5">
-        <v>0.8149964118701495</v>
+        <v>0.007663386963217333</v>
       </c>
       <c r="G5">
-        <v>1.096121626326326</v>
+        <v>0.009664870607773915</v>
       </c>
       <c r="H5">
-        <v>0.8281591837986223</v>
+        <v>0.001455185867248226</v>
       </c>
       <c r="I5">
-        <v>1.145250421638142</v>
+        <v>12.41097219008164</v>
       </c>
       <c r="J5">
-        <v>1.091573070819084</v>
+        <v>5.736036285514257</v>
       </c>
       <c r="K5">
-        <v>1.145250421638142</v>
+        <v>12.41097219008164</v>
       </c>
       <c r="L5">
-        <v>4.168011907277007</v>
+        <v>4.321598346512828</v>
       </c>
       <c r="M5">
-        <v>2.491504159573578</v>
+        <v>2.164630866738023</v>
       </c>
       <c r="N5">
-        <v>2.491504159573578</v>
+        <v>2.164630866738023</v>
       </c>
       <c r="O5">
-        <v>1.93705583431526</v>
+        <v>1.443572306447764</v>
       </c>
       <c r="P5">
-        <v>2.0427529135951</v>
+        <v>5.58007797451923</v>
       </c>
       <c r="Q5">
-        <v>2.0427529135951</v>
+        <v>5.58007797451923</v>
       </c>
       <c r="R5">
-        <v>1.81837729060586</v>
+        <v>7.287801528409833</v>
       </c>
       <c r="S5">
-        <v>1.81837729060586</v>
+        <v>7.287801528409833</v>
       </c>
       <c r="T5">
-        <v>1.524018770288222</v>
+        <v>3.747898377591161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4208240059199511</v>
+        <v>0.8761505387600875</v>
       </c>
       <c r="D6">
-        <v>31.59099687277516</v>
+        <v>1.076115324506955</v>
       </c>
       <c r="E6">
-        <v>0.4672964638756013</v>
+        <v>0.9483741113112045</v>
       </c>
       <c r="F6">
-        <v>0.4208240059199511</v>
+        <v>0.8761505387600875</v>
       </c>
       <c r="G6">
-        <v>0.5043909674042102</v>
+        <v>3.056244653791921</v>
       </c>
       <c r="H6">
-        <v>0.481565531407553</v>
+        <v>0.7864579448109296</v>
       </c>
       <c r="I6">
-        <v>0.4672964638756013</v>
+        <v>0.9483741113112045</v>
       </c>
       <c r="J6">
-        <v>0.5135933416184758</v>
+        <v>0.9598940213841621</v>
       </c>
       <c r="K6">
-        <v>0.4672964638756013</v>
+        <v>0.9483741113112045</v>
       </c>
       <c r="L6">
-        <v>31.59099687277516</v>
+        <v>1.076115324506955</v>
       </c>
       <c r="M6">
-        <v>16.00591043934756</v>
+        <v>0.976132931633521</v>
       </c>
       <c r="N6">
-        <v>16.00591043934756</v>
+        <v>0.976132931633521</v>
       </c>
       <c r="O6">
-        <v>10.83112880336756</v>
+        <v>0.9129079360259905</v>
       </c>
       <c r="P6">
-        <v>10.82637244752357</v>
+        <v>0.9668799915260822</v>
       </c>
       <c r="Q6">
-        <v>10.82637244752357</v>
+        <v>0.9668799915260822</v>
       </c>
       <c r="R6">
-        <v>8.236603451611579</v>
+        <v>0.9622535214723628</v>
       </c>
       <c r="S6">
-        <v>8.236603451611579</v>
+        <v>0.9622535214723628</v>
       </c>
       <c r="T6">
-        <v>5.663111197166827</v>
+        <v>1.283872765760877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9794125352516312</v>
+        <v>0.8149964118701495</v>
       </c>
       <c r="D7">
-        <v>1.011044978143908</v>
+        <v>4.168011907277007</v>
       </c>
       <c r="E7">
-        <v>1.168542362306481</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="F7">
-        <v>0.9794125352516312</v>
+        <v>0.8149964118701495</v>
       </c>
       <c r="G7">
-        <v>1.193326523906265</v>
+        <v>1.096121626326326</v>
       </c>
       <c r="H7">
-        <v>0.977685825773113</v>
+        <v>0.8281591837986223</v>
       </c>
       <c r="I7">
-        <v>1.168542362306481</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="J7">
-        <v>1.062605731105803</v>
+        <v>1.091573070819084</v>
       </c>
       <c r="K7">
-        <v>1.168542362306481</v>
+        <v>1.145250421638142</v>
       </c>
       <c r="L7">
-        <v>1.011044978143908</v>
+        <v>4.168011907277007</v>
       </c>
       <c r="M7">
-        <v>0.9952287566977698</v>
+        <v>2.491504159573578</v>
       </c>
       <c r="N7">
-        <v>0.9952287566977698</v>
+        <v>2.491504159573578</v>
       </c>
       <c r="O7">
-        <v>0.9893811130562176</v>
+        <v>1.93705583431526</v>
       </c>
       <c r="P7">
-        <v>1.05299995856734</v>
+        <v>2.0427529135951</v>
       </c>
       <c r="Q7">
-        <v>1.05299995856734</v>
+        <v>2.0427529135951</v>
       </c>
       <c r="R7">
-        <v>1.081885559502125</v>
+        <v>1.81837729060586</v>
       </c>
       <c r="S7">
-        <v>1.081885559502125</v>
+        <v>1.81837729060586</v>
       </c>
       <c r="T7">
-        <v>1.0654363260812</v>
+        <v>1.524018770288222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.103769990548849</v>
+        <v>0.4208240059199511</v>
       </c>
       <c r="D8">
-        <v>1.068150624251218</v>
+        <v>31.59099687277516</v>
       </c>
       <c r="E8">
-        <v>1.160082384718444</v>
+        <v>0.4672964638756013</v>
       </c>
       <c r="F8">
-        <v>1.103769990548849</v>
+        <v>0.4208240059199511</v>
       </c>
       <c r="G8">
-        <v>0.8667061198083762</v>
+        <v>0.5043909674042102</v>
       </c>
       <c r="H8">
-        <v>1.0296437082431</v>
+        <v>0.481565531407553</v>
       </c>
       <c r="I8">
-        <v>1.160082384718444</v>
+        <v>0.4672964638756013</v>
       </c>
       <c r="J8">
-        <v>1.019598478426555</v>
+        <v>0.5135933416184758</v>
       </c>
       <c r="K8">
-        <v>1.160082384718444</v>
+        <v>0.4672964638756013</v>
       </c>
       <c r="L8">
-        <v>1.068150624251218</v>
+        <v>31.59099687277516</v>
       </c>
       <c r="M8">
-        <v>1.085960307400033</v>
+        <v>16.00591043934756</v>
       </c>
       <c r="N8">
-        <v>1.085960307400033</v>
+        <v>16.00591043934756</v>
       </c>
       <c r="O8">
-        <v>1.067188107681056</v>
+        <v>10.83112880336756</v>
       </c>
       <c r="P8">
-        <v>1.110667666506171</v>
+        <v>10.82637244752357</v>
       </c>
       <c r="Q8">
-        <v>1.110667666506171</v>
+        <v>10.82637244752357</v>
       </c>
       <c r="R8">
-        <v>1.123021346059239</v>
+        <v>8.236603451611579</v>
       </c>
       <c r="S8">
-        <v>1.123021346059239</v>
+        <v>8.236603451611579</v>
       </c>
       <c r="T8">
-        <v>1.041325217666091</v>
+        <v>5.663111197166827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.272736994602419</v>
+        <v>0.9794125352516312</v>
       </c>
       <c r="D9">
-        <v>1.185461344600689</v>
+        <v>1.011044978143908</v>
       </c>
       <c r="E9">
-        <v>1.455318617902882</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="F9">
-        <v>1.272736994602419</v>
+        <v>0.9794125352516312</v>
       </c>
       <c r="G9">
-        <v>1.510153810359975</v>
+        <v>1.193326523906265</v>
       </c>
       <c r="H9">
-        <v>0.8964547595121962</v>
+        <v>0.977685825773113</v>
       </c>
       <c r="I9">
-        <v>1.455318617902882</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="J9">
-        <v>1.125997325644179</v>
+        <v>1.062605731105803</v>
       </c>
       <c r="K9">
-        <v>1.455318617902882</v>
+        <v>1.168542362306481</v>
       </c>
       <c r="L9">
-        <v>1.185461344600689</v>
+        <v>1.011044978143908</v>
       </c>
       <c r="M9">
-        <v>1.229099169601554</v>
+        <v>0.9952287566977698</v>
       </c>
       <c r="N9">
-        <v>1.229099169601554</v>
+        <v>0.9952287566977698</v>
       </c>
       <c r="O9">
-        <v>1.118217699571768</v>
+        <v>0.9893811130562176</v>
       </c>
       <c r="P9">
-        <v>1.304505652368664</v>
+        <v>1.05299995856734</v>
       </c>
       <c r="Q9">
-        <v>1.304505652368664</v>
+        <v>1.05299995856734</v>
       </c>
       <c r="R9">
-        <v>1.342208893752218</v>
+        <v>1.081885559502125</v>
       </c>
       <c r="S9">
-        <v>1.342208893752218</v>
+        <v>1.081885559502125</v>
       </c>
       <c r="T9">
-        <v>1.241020475437057</v>
+        <v>1.0654363260812</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.28405236320699</v>
+        <v>1.103769990548849</v>
       </c>
       <c r="D10">
-        <v>32.00062575141133</v>
+        <v>1.068150624251218</v>
       </c>
       <c r="E10">
-        <v>0.4379277714502237</v>
+        <v>1.160082384718444</v>
       </c>
       <c r="F10">
-        <v>0.28405236320699</v>
+        <v>1.103769990548849</v>
       </c>
       <c r="G10">
-        <v>0.4405136609192016</v>
+        <v>0.8667061198083762</v>
       </c>
       <c r="H10">
-        <v>0.4739049633484492</v>
+        <v>1.0296437082431</v>
       </c>
       <c r="I10">
-        <v>0.4379277714502237</v>
+        <v>1.160082384718444</v>
       </c>
       <c r="J10">
-        <v>0.5317723494364042</v>
+        <v>1.019598478426555</v>
       </c>
       <c r="K10">
-        <v>0.4379277714502237</v>
+        <v>1.160082384718444</v>
       </c>
       <c r="L10">
-        <v>32.00062575141133</v>
+        <v>1.068150624251218</v>
       </c>
       <c r="M10">
-        <v>16.14233905730916</v>
+        <v>1.085960307400033</v>
       </c>
       <c r="N10">
-        <v>16.14233905730916</v>
+        <v>1.085960307400033</v>
       </c>
       <c r="O10">
-        <v>10.91952769265559</v>
+        <v>1.067188107681056</v>
       </c>
       <c r="P10">
-        <v>10.90753529535618</v>
+        <v>1.110667666506171</v>
       </c>
       <c r="Q10">
-        <v>10.90753529535618</v>
+        <v>1.110667666506171</v>
       </c>
       <c r="R10">
-        <v>8.290133414379692</v>
+        <v>1.123021346059239</v>
       </c>
       <c r="S10">
-        <v>8.290133414379692</v>
+        <v>1.123021346059239</v>
       </c>
       <c r="T10">
-        <v>5.694799476628766</v>
+        <v>1.041325217666091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.795394150187703</v>
+        <v>1.272736994602419</v>
       </c>
       <c r="D11">
-        <v>1.016166869002975</v>
+        <v>1.185461344600689</v>
       </c>
       <c r="E11">
-        <v>0.9402025564785124</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="F11">
-        <v>0.795394150187703</v>
+        <v>1.272736994602419</v>
       </c>
       <c r="G11">
-        <v>2.926571817301505</v>
+        <v>1.510153810359975</v>
       </c>
       <c r="H11">
-        <v>0.7723519776580139</v>
+        <v>0.8964547595121962</v>
       </c>
       <c r="I11">
-        <v>0.9402025564785124</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="J11">
-        <v>0.9811741077033729</v>
+        <v>1.125997325644179</v>
       </c>
       <c r="K11">
-        <v>0.9402025564785124</v>
+        <v>1.455318617902882</v>
       </c>
       <c r="L11">
-        <v>1.016166869002975</v>
+        <v>1.185461344600689</v>
       </c>
       <c r="M11">
-        <v>0.9057805095953391</v>
+        <v>1.229099169601554</v>
       </c>
       <c r="N11">
-        <v>0.9057805095953391</v>
+        <v>1.229099169601554</v>
       </c>
       <c r="O11">
-        <v>0.8613043322828974</v>
+        <v>1.118217699571768</v>
       </c>
       <c r="P11">
-        <v>0.9172545252230635</v>
+        <v>1.304505652368664</v>
       </c>
       <c r="Q11">
-        <v>0.9172545252230636</v>
+        <v>1.304505652368664</v>
       </c>
       <c r="R11">
-        <v>0.9229915330369258</v>
+        <v>1.342208893752218</v>
       </c>
       <c r="S11">
-        <v>0.9229915330369258</v>
+        <v>1.342208893752218</v>
       </c>
       <c r="T11">
-        <v>1.238643579722014</v>
+        <v>1.241020475437057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5429070319449473</v>
+        <v>0.28405236320699</v>
       </c>
       <c r="D12">
-        <v>5.692214950044568</v>
+        <v>32.00062575141133</v>
       </c>
       <c r="E12">
-        <v>0.944548731820381</v>
+        <v>0.4379277714502237</v>
       </c>
       <c r="F12">
-        <v>0.5429070319449473</v>
+        <v>0.28405236320699</v>
       </c>
       <c r="G12">
-        <v>0.9936110687466966</v>
+        <v>0.4405136609192016</v>
       </c>
       <c r="H12">
-        <v>0.925083479334157</v>
+        <v>0.4739049633484492</v>
       </c>
       <c r="I12">
-        <v>0.944548731820381</v>
+        <v>0.4379277714502237</v>
       </c>
       <c r="J12">
-        <v>1.043247996025885</v>
+        <v>0.5317723494364042</v>
       </c>
       <c r="K12">
-        <v>0.944548731820381</v>
+        <v>0.4379277714502237</v>
       </c>
       <c r="L12">
-        <v>5.692214950044568</v>
+        <v>32.00062575141133</v>
       </c>
       <c r="M12">
-        <v>3.117560990994758</v>
+        <v>16.14233905730916</v>
       </c>
       <c r="N12">
-        <v>3.117560990994758</v>
+        <v>16.14233905730916</v>
       </c>
       <c r="O12">
-        <v>2.386735153774558</v>
+        <v>10.91952769265559</v>
       </c>
       <c r="P12">
-        <v>2.393223571269966</v>
+        <v>10.90753529535618</v>
       </c>
       <c r="Q12">
-        <v>2.393223571269965</v>
+        <v>10.90753529535618</v>
       </c>
       <c r="R12">
-        <v>2.031054861407569</v>
+        <v>8.290133414379692</v>
       </c>
       <c r="S12">
-        <v>2.031054861407569</v>
+        <v>8.290133414379692</v>
       </c>
       <c r="T12">
-        <v>1.690268876319439</v>
+        <v>5.694799476628766</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8117114763998808</v>
+        <v>0.795394150187703</v>
       </c>
       <c r="D13">
-        <v>1.018889264823894</v>
+        <v>1.016166869002975</v>
       </c>
       <c r="E13">
-        <v>1.143698839370197</v>
+        <v>0.9402025564785124</v>
       </c>
       <c r="F13">
-        <v>0.8117114763998808</v>
+        <v>0.795394150187703</v>
       </c>
       <c r="G13">
-        <v>0.9224402350007244</v>
+        <v>2.926571817301505</v>
       </c>
       <c r="H13">
-        <v>1.234790906921701</v>
+        <v>0.7723519776580139</v>
       </c>
       <c r="I13">
-        <v>1.143698839370197</v>
+        <v>0.9402025564785124</v>
       </c>
       <c r="J13">
-        <v>0.9875043861150895</v>
+        <v>0.9811741077033729</v>
       </c>
       <c r="K13">
-        <v>1.143698839370197</v>
+        <v>0.9402025564785124</v>
       </c>
       <c r="L13">
-        <v>1.018889264823894</v>
+        <v>1.016166869002975</v>
       </c>
       <c r="M13">
-        <v>0.9153003706118872</v>
+        <v>0.9057805095953391</v>
       </c>
       <c r="N13">
-        <v>0.9153003706118872</v>
+        <v>0.9057805095953391</v>
       </c>
       <c r="O13">
-        <v>1.021797216048492</v>
+        <v>0.8613043322828974</v>
       </c>
       <c r="P13">
-        <v>0.991433193531324</v>
+        <v>0.9172545252230635</v>
       </c>
       <c r="Q13">
-        <v>0.991433193531324</v>
+        <v>0.9172545252230636</v>
       </c>
       <c r="R13">
-        <v>1.029499604991042</v>
+        <v>0.9229915330369258</v>
       </c>
       <c r="S13">
-        <v>1.029499604991042</v>
+        <v>0.9229915330369258</v>
       </c>
       <c r="T13">
-        <v>1.019839184771914</v>
+        <v>1.238643579722014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0009775087999999992</v>
+        <v>0.5429070319449473</v>
       </c>
       <c r="D14">
-        <v>60.56370400000006</v>
+        <v>5.692214950044568</v>
       </c>
       <c r="E14">
-        <v>-0.01224095599999999</v>
+        <v>0.944548731820381</v>
       </c>
       <c r="F14">
-        <v>-0.0009775087999999992</v>
+        <v>0.5429070319449473</v>
       </c>
       <c r="G14">
-        <v>-0.01613836199999998</v>
+        <v>0.9936110687466966</v>
       </c>
       <c r="H14">
-        <v>0.005157209900000002</v>
+        <v>0.925083479334157</v>
       </c>
       <c r="I14">
-        <v>-0.01224095599999999</v>
+        <v>0.944548731820381</v>
       </c>
       <c r="J14">
-        <v>-0.0002910051300000005</v>
+        <v>1.043247996025885</v>
       </c>
       <c r="K14">
-        <v>-0.01224095599999999</v>
+        <v>0.944548731820381</v>
       </c>
       <c r="L14">
-        <v>60.56370400000006</v>
+        <v>5.692214950044568</v>
       </c>
       <c r="M14">
-        <v>30.28136324560003</v>
+        <v>3.117560990994758</v>
       </c>
       <c r="N14">
-        <v>30.28136324560003</v>
+        <v>3.117560990994758</v>
       </c>
       <c r="O14">
-        <v>20.18929456703335</v>
+        <v>2.386735153774558</v>
       </c>
       <c r="P14">
-        <v>20.18349517840002</v>
+        <v>2.393223571269966</v>
       </c>
       <c r="Q14">
-        <v>20.18349517840002</v>
+        <v>2.393223571269965</v>
       </c>
       <c r="R14">
-        <v>15.13456114480002</v>
+        <v>2.031054861407569</v>
       </c>
       <c r="S14">
-        <v>15.13456114480002</v>
+        <v>2.031054861407569</v>
       </c>
       <c r="T14">
-        <v>10.08986889632834</v>
+        <v>1.690268876319439</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.00070900843</v>
+        <v>0.8117114763998808</v>
       </c>
       <c r="D15">
-        <v>-0.012240956</v>
+        <v>1.018889264823894</v>
       </c>
       <c r="E15">
-        <v>121.14151</v>
+        <v>1.143698839370197</v>
       </c>
       <c r="F15">
-        <v>0.00070900843</v>
+        <v>0.8117114763998808</v>
       </c>
       <c r="G15">
-        <v>0.010282672</v>
+        <v>0.9224402350007244</v>
       </c>
       <c r="H15">
-        <v>-0.0017802751</v>
+        <v>1.234790906921701</v>
       </c>
       <c r="I15">
-        <v>121.14151</v>
+        <v>1.143698839370197</v>
       </c>
       <c r="J15">
-        <v>-0.0067091534</v>
+        <v>0.9875043861150895</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>1.143698839370197</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>1.018889264823894</v>
       </c>
       <c r="M15">
-        <v>-0.005765973785000001</v>
+        <v>0.9153003706118872</v>
       </c>
       <c r="N15">
-        <v>-0.005765973785000001</v>
+        <v>0.9153003706118872</v>
       </c>
       <c r="O15">
-        <v>-0.004437407556666668</v>
+        <v>1.021797216048492</v>
       </c>
       <c r="P15">
-        <v>40.37665935080999</v>
+        <v>0.991433193531324</v>
       </c>
       <c r="Q15">
-        <v>40.37665935080999</v>
+        <v>0.991433193531324</v>
       </c>
       <c r="R15">
-        <v>60.5678720131075</v>
+        <v>1.029499604991042</v>
       </c>
       <c r="S15">
-        <v>60.5678720131075</v>
+        <v>1.029499604991042</v>
       </c>
       <c r="T15">
-        <v>20.18862854932167</v>
+        <v>1.019839184771914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.011910205</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="D16">
-        <v>-0.016138362</v>
+        <v>60.56370400000006</v>
       </c>
       <c r="E16">
-        <v>0.010282672</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="F16">
-        <v>0.011910205</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="G16">
-        <v>181.71412</v>
+        <v>-0.01613836199999998</v>
       </c>
       <c r="H16">
-        <v>-0.0048753252</v>
+        <v>0.005157209900000002</v>
       </c>
       <c r="I16">
-        <v>0.010282672</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="J16">
-        <v>-0.0028218379</v>
+        <v>-0.0002910051300000005</v>
       </c>
       <c r="K16">
-        <v>0.010282672</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="L16">
-        <v>-0.016138362</v>
+        <v>60.56370400000006</v>
       </c>
       <c r="M16">
-        <v>-0.0021140785</v>
+        <v>30.28136324560003</v>
       </c>
       <c r="N16">
-        <v>-0.0021140785</v>
+        <v>30.28136324560003</v>
       </c>
       <c r="O16">
-        <v>-0.003034494066666666</v>
+        <v>20.18929456703335</v>
       </c>
       <c r="P16">
-        <v>0.002018171666666667</v>
+        <v>20.18349517840002</v>
       </c>
       <c r="Q16">
-        <v>0.002018171666666667</v>
+        <v>20.18349517840002</v>
       </c>
       <c r="R16">
-        <v>0.00408429675</v>
+        <v>15.13456114480002</v>
       </c>
       <c r="S16">
-        <v>0.00408429675</v>
+        <v>15.13456114480002</v>
       </c>
       <c r="T16">
-        <v>30.28541289198334</v>
+        <v>10.08986889632834</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0039809339</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D17">
-        <v>-0.0061827927</v>
+        <v>-0.012240956</v>
       </c>
       <c r="E17">
-        <v>2.827508</v>
+        <v>121.14151</v>
       </c>
       <c r="F17">
-        <v>-0.0039809339</v>
+        <v>0.00070900843</v>
       </c>
       <c r="G17">
-        <v>-0.0047377087</v>
+        <v>0.010282672</v>
       </c>
       <c r="H17">
-        <v>0.010148807</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="I17">
-        <v>2.827508</v>
+        <v>121.14151</v>
       </c>
       <c r="J17">
-        <v>-0.01284827</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="K17">
-        <v>2.827508</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>-0.0061827927</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>-0.0050818633</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N17">
-        <v>-0.0050818633</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O17">
-        <v>-4.973199999999909E-06</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P17">
-        <v>0.9391147578</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q17">
-        <v>0.9391147578</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R17">
-        <v>1.41121306835</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S17">
-        <v>1.41121306835</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T17">
-        <v>0.4683178502833333</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.397461926027393E-05</v>
+        <v>0.011910205</v>
       </c>
       <c r="D18">
-        <v>0.002368008684931506</v>
+        <v>-0.016138362</v>
       </c>
       <c r="E18">
-        <v>5.398213951819177</v>
+        <v>0.010282672</v>
       </c>
       <c r="F18">
-        <v>7.397461926027393E-05</v>
+        <v>0.011910205</v>
       </c>
       <c r="G18">
-        <v>5.602081230169865</v>
+        <v>181.71412</v>
       </c>
       <c r="H18">
-        <v>0.001249337267123289</v>
+        <v>-0.0048753252</v>
       </c>
       <c r="I18">
-        <v>5.398213951819177</v>
+        <v>0.010282672</v>
       </c>
       <c r="J18">
-        <v>1.700647374421918</v>
+        <v>-0.0028218379</v>
       </c>
       <c r="K18">
-        <v>5.398213951819177</v>
+        <v>0.010282672</v>
       </c>
       <c r="L18">
-        <v>0.002368008684931506</v>
+        <v>-0.016138362</v>
       </c>
       <c r="M18">
-        <v>0.00122099165209589</v>
+        <v>-0.0021140785</v>
       </c>
       <c r="N18">
-        <v>0.00122099165209589</v>
+        <v>-0.0021140785</v>
       </c>
       <c r="O18">
-        <v>0.001230440190438356</v>
+        <v>-0.003034494066666666</v>
       </c>
       <c r="P18">
-        <v>1.800218645041123</v>
+        <v>0.002018171666666667</v>
       </c>
       <c r="Q18">
-        <v>1.800218645041123</v>
+        <v>0.002018171666666667</v>
       </c>
       <c r="R18">
-        <v>2.699717471735637</v>
+        <v>0.00408429675</v>
       </c>
       <c r="S18">
-        <v>2.699717471735637</v>
+        <v>0.00408429675</v>
       </c>
       <c r="T18">
-        <v>2.117438979497046</v>
+        <v>30.28541289198334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.1541481669</v>
+        <v>-0.0039809339</v>
       </c>
       <c r="D19">
-        <v>5.160641614732109</v>
+        <v>-0.0061827927</v>
       </c>
       <c r="E19">
-        <v>3.576971794984737</v>
+        <v>2.827508</v>
       </c>
       <c r="F19">
-        <v>7.1541481669</v>
+        <v>-0.0039809339</v>
       </c>
       <c r="G19">
-        <v>15.48614188696632</v>
+        <v>-0.0047377087</v>
       </c>
       <c r="H19">
-        <v>0.001693667789473684</v>
+        <v>0.010148807</v>
       </c>
       <c r="I19">
-        <v>3.576971794984737</v>
+        <v>2.827508</v>
       </c>
       <c r="J19">
-        <v>-0.006934997314736842</v>
+        <v>-0.01284827</v>
       </c>
       <c r="K19">
-        <v>3.576971794984737</v>
+        <v>2.827508</v>
       </c>
       <c r="L19">
-        <v>5.160641614732109</v>
+        <v>-0.0061827927</v>
       </c>
       <c r="M19">
-        <v>6.157394890816054</v>
+        <v>-0.0050818633</v>
       </c>
       <c r="N19">
-        <v>6.157394890816054</v>
+        <v>-0.0050818633</v>
       </c>
       <c r="O19">
-        <v>4.105494483140527</v>
+        <v>-4.973199999999909E-06</v>
       </c>
       <c r="P19">
-        <v>5.297253858872281</v>
+        <v>0.9391147578</v>
       </c>
       <c r="Q19">
-        <v>5.297253858872282</v>
+        <v>0.9391147578</v>
       </c>
       <c r="R19">
-        <v>4.867183342900396</v>
+        <v>1.41121306835</v>
       </c>
       <c r="S19">
-        <v>4.867183342900396</v>
+        <v>1.41121306835</v>
       </c>
       <c r="T19">
-        <v>5.228777022342983</v>
+        <v>0.4683178502833333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.007059912923684212</v>
+        <v>7.397461926027393E-05</v>
       </c>
       <c r="D20">
-        <v>6.978976538800003</v>
+        <v>0.002368008684931506</v>
       </c>
       <c r="E20">
-        <v>13.95229605936842</v>
+        <v>5.398213951819177</v>
       </c>
       <c r="F20">
-        <v>0.007059912923684212</v>
+        <v>7.397461926027393E-05</v>
       </c>
       <c r="G20">
-        <v>0.008372386005263159</v>
+        <v>5.602081230169865</v>
       </c>
       <c r="H20">
-        <v>0.001535044043157895</v>
+        <v>0.001249337267123289</v>
       </c>
       <c r="I20">
-        <v>13.95229605936842</v>
+        <v>5.398213951819177</v>
       </c>
       <c r="J20">
-        <v>5.221143802310525</v>
+        <v>1.700647374421918</v>
       </c>
       <c r="K20">
-        <v>13.95229605936842</v>
+        <v>5.398213951819177</v>
       </c>
       <c r="L20">
-        <v>6.978976538800003</v>
+        <v>0.002368008684931506</v>
       </c>
       <c r="M20">
-        <v>3.493018225861844</v>
+        <v>0.00122099165209589</v>
       </c>
       <c r="N20">
-        <v>3.493018225861844</v>
+        <v>0.00122099165209589</v>
       </c>
       <c r="O20">
-        <v>2.329190498588948</v>
+        <v>0.001230440190438356</v>
       </c>
       <c r="P20">
-        <v>6.979444170364037</v>
+        <v>1.800218645041123</v>
       </c>
       <c r="Q20">
-        <v>6.979444170364037</v>
+        <v>1.800218645041123</v>
       </c>
       <c r="R20">
-        <v>8.722657142615134</v>
+        <v>2.699717471735637</v>
       </c>
       <c r="S20">
-        <v>8.722657142615134</v>
+        <v>2.699717471735637</v>
       </c>
       <c r="T20">
-        <v>4.361563957241843</v>
+        <v>2.117438979497046</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.004538901905293547</v>
+        <v>7.1541481669</v>
       </c>
       <c r="D21">
-        <v>0.2444052323227772</v>
+        <v>5.160641614732109</v>
       </c>
       <c r="E21">
-        <v>0.1366769654221978</v>
+        <v>3.576971794984737</v>
       </c>
       <c r="F21">
-        <v>-0.004538901905293547</v>
+        <v>7.1541481669</v>
       </c>
       <c r="G21">
-        <v>2.807453434814114</v>
+        <v>15.48614188696632</v>
       </c>
       <c r="H21">
-        <v>0.277491394640421</v>
+        <v>0.001693667789473684</v>
       </c>
       <c r="I21">
-        <v>0.1366769654221978</v>
+        <v>3.576971794984737</v>
       </c>
       <c r="J21">
-        <v>1.817098418793493</v>
+        <v>-0.006934997314736842</v>
       </c>
       <c r="K21">
-        <v>0.1366769654221978</v>
+        <v>3.576971794984737</v>
       </c>
       <c r="L21">
-        <v>0.2444052323227772</v>
+        <v>5.160641614732109</v>
       </c>
       <c r="M21">
-        <v>0.1199331652087418</v>
+        <v>6.157394890816054</v>
       </c>
       <c r="N21">
-        <v>0.1199331652087418</v>
+        <v>6.157394890816054</v>
       </c>
       <c r="O21">
-        <v>0.1724525750193016</v>
+        <v>4.105494483140527</v>
       </c>
       <c r="P21">
-        <v>0.1255144319465605</v>
+        <v>5.297253858872281</v>
       </c>
       <c r="Q21">
-        <v>0.1255144319465605</v>
+        <v>5.297253858872282</v>
       </c>
       <c r="R21">
-        <v>0.1283050653154698</v>
+        <v>4.867183342900396</v>
       </c>
       <c r="S21">
-        <v>0.1283050653154698</v>
+        <v>4.867183342900396</v>
       </c>
       <c r="T21">
-        <v>0.8797644240146182</v>
+        <v>5.228777022342983</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.001693800555954467</v>
+        <v>0.007059912923684212</v>
       </c>
       <c r="D22">
-        <v>0.03517713594029284</v>
+        <v>6.978976538800003</v>
       </c>
       <c r="E22">
-        <v>0.08870295097191687</v>
+        <v>13.95229605936842</v>
       </c>
       <c r="F22">
-        <v>0.001693800555954467</v>
+        <v>0.007059912923684212</v>
       </c>
       <c r="G22">
-        <v>0.0009285292887252522</v>
+        <v>0.008372386005263159</v>
       </c>
       <c r="H22">
-        <v>0.1736462014875939</v>
+        <v>0.001535044043157895</v>
       </c>
       <c r="I22">
-        <v>0.08870295097191687</v>
+        <v>13.95229605936842</v>
       </c>
       <c r="J22">
-        <v>0.8454591965976243</v>
+        <v>5.221143802310525</v>
       </c>
       <c r="K22">
-        <v>0.08870295097191687</v>
+        <v>13.95229605936842</v>
       </c>
       <c r="L22">
-        <v>0.03517713594029284</v>
+        <v>6.978976538800003</v>
       </c>
       <c r="M22">
-        <v>0.01843546824812365</v>
+        <v>3.493018225861844</v>
       </c>
       <c r="N22">
-        <v>0.01843546824812365</v>
+        <v>3.493018225861844</v>
       </c>
       <c r="O22">
-        <v>0.07017237932794707</v>
+        <v>2.329190498588948</v>
       </c>
       <c r="P22">
-        <v>0.04185796248938806</v>
+        <v>6.979444170364037</v>
       </c>
       <c r="Q22">
-        <v>0.04185796248938806</v>
+        <v>6.979444170364037</v>
       </c>
       <c r="R22">
-        <v>0.05356920961002026</v>
+        <v>8.722657142615134</v>
       </c>
       <c r="S22">
-        <v>0.05356920961002026</v>
+        <v>8.722657142615134</v>
       </c>
       <c r="T22">
-        <v>0.1909346358070179</v>
+        <v>4.361563957241843</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.000532298282533667</v>
+        <v>-0.004538901905293547</v>
       </c>
       <c r="D23">
-        <v>1.399240406789604</v>
+        <v>0.2444052323227772</v>
       </c>
       <c r="E23">
-        <v>0.0002877035861823883</v>
+        <v>0.1366769654221978</v>
       </c>
       <c r="F23">
-        <v>0.000532298282533667</v>
+        <v>-0.004538901905293547</v>
       </c>
       <c r="G23">
-        <v>-0.001559141307159513</v>
+        <v>2.807453434814114</v>
       </c>
       <c r="H23">
-        <v>2.059291498268636</v>
+        <v>0.277491394640421</v>
       </c>
       <c r="I23">
-        <v>0.0002877035861823883</v>
+        <v>0.1366769654221978</v>
       </c>
       <c r="J23">
-        <v>1.048348205524001</v>
+        <v>1.817098418793493</v>
       </c>
       <c r="K23">
-        <v>0.0002877035861823883</v>
+        <v>0.1366769654221978</v>
       </c>
       <c r="L23">
-        <v>1.399240406789604</v>
+        <v>0.2444052323227772</v>
       </c>
       <c r="M23">
-        <v>0.6998863525360688</v>
+        <v>0.1199331652087418</v>
       </c>
       <c r="N23">
-        <v>0.6998863525360688</v>
+        <v>0.1199331652087418</v>
       </c>
       <c r="O23">
-        <v>1.153021401113591</v>
+        <v>0.1724525750193016</v>
       </c>
       <c r="P23">
-        <v>0.4666868028861066</v>
+        <v>0.1255144319465605</v>
       </c>
       <c r="Q23">
-        <v>0.4666868028861066</v>
+        <v>0.1255144319465605</v>
       </c>
       <c r="R23">
-        <v>0.3500870280611256</v>
+        <v>0.1283050653154698</v>
       </c>
       <c r="S23">
-        <v>0.3500870280611256</v>
+        <v>0.1283050653154698</v>
       </c>
       <c r="T23">
-        <v>0.7510234951906328</v>
+        <v>0.8797644240146182</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.266821309831473</v>
+        <v>0.001693800555954467</v>
       </c>
       <c r="D24">
-        <v>0.02000177124010596</v>
+        <v>0.03517713594029284</v>
       </c>
       <c r="E24">
-        <v>3.102638420902982</v>
+        <v>0.08870295097191687</v>
       </c>
       <c r="F24">
-        <v>4.266821309831473</v>
+        <v>0.001693800555954467</v>
       </c>
       <c r="G24">
-        <v>3.155339425965618</v>
+        <v>0.0009285292887252522</v>
       </c>
       <c r="H24">
-        <v>1.472654676476381</v>
+        <v>0.1736462014875939</v>
       </c>
       <c r="I24">
-        <v>3.102638420902982</v>
+        <v>0.08870295097191687</v>
       </c>
       <c r="J24">
-        <v>0.6719815952770193</v>
+        <v>0.8454591965976243</v>
       </c>
       <c r="K24">
-        <v>3.102638420902982</v>
+        <v>0.08870295097191687</v>
       </c>
       <c r="L24">
-        <v>0.02000177124010596</v>
+        <v>0.03517713594029284</v>
       </c>
       <c r="M24">
-        <v>2.143411540535789</v>
+        <v>0.01843546824812365</v>
       </c>
       <c r="N24">
-        <v>2.143411540535789</v>
+        <v>0.01843546824812365</v>
       </c>
       <c r="O24">
-        <v>1.919825919182653</v>
+        <v>0.07017237932794707</v>
       </c>
       <c r="P24">
-        <v>2.46315383399152</v>
+        <v>0.04185796248938806</v>
       </c>
       <c r="Q24">
-        <v>2.46315383399152</v>
+        <v>0.04185796248938806</v>
       </c>
       <c r="R24">
-        <v>2.623024980719386</v>
+        <v>0.05356920961002026</v>
       </c>
       <c r="S24">
-        <v>2.623024980719386</v>
+        <v>0.05356920961002026</v>
       </c>
       <c r="T24">
-        <v>2.11490619994893</v>
+        <v>0.1909346358070179</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-0.0004948253013164551</v>
+        <v>0.000532298282533667</v>
       </c>
       <c r="D25">
-        <v>0.001281277431758251</v>
+        <v>1.399240406789604</v>
       </c>
       <c r="E25">
-        <v>0.293487151043928</v>
+        <v>0.0002877035861823883</v>
       </c>
       <c r="F25">
-        <v>-0.0004948253013164551</v>
+        <v>0.000532298282533667</v>
       </c>
       <c r="G25">
-        <v>-0.0004099603055420438</v>
+        <v>-0.001559141307159513</v>
       </c>
       <c r="H25">
-        <v>-0.0007043087674865656</v>
+        <v>2.059291498268636</v>
       </c>
       <c r="I25">
-        <v>0.293487151043928</v>
+        <v>0.0002877035861823883</v>
       </c>
       <c r="J25">
-        <v>1.052921191593845</v>
+        <v>1.048348205524001</v>
       </c>
       <c r="K25">
-        <v>0.293487151043928</v>
+        <v>0.0002877035861823883</v>
       </c>
       <c r="L25">
-        <v>0.001281277431758251</v>
+        <v>1.399240406789604</v>
       </c>
       <c r="M25">
-        <v>0.0003932260652208978</v>
+        <v>0.6998863525360688</v>
       </c>
       <c r="N25">
-        <v>0.0003932260652208978</v>
+        <v>0.6998863525360688</v>
       </c>
       <c r="O25">
-        <v>2.738112098507671E-05</v>
+        <v>1.153021401113591</v>
       </c>
       <c r="P25">
-        <v>0.09809120105812329</v>
+        <v>0.4666868028861066</v>
       </c>
       <c r="Q25">
-        <v>0.09809120105812329</v>
+        <v>0.4666868028861066</v>
       </c>
       <c r="R25">
-        <v>0.1469401885545745</v>
+        <v>0.3500870280611256</v>
       </c>
       <c r="S25">
-        <v>0.1469401885545745</v>
+        <v>0.3500870280611256</v>
       </c>
       <c r="T25">
-        <v>0.224346754282531</v>
+        <v>0.7510234951906328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.001238321325377139</v>
+        <v>4.266821309831473</v>
       </c>
       <c r="D26">
-        <v>2.673399985149283</v>
+        <v>0.02000177124010596</v>
       </c>
       <c r="E26">
-        <v>-0.001287781793007508</v>
+        <v>3.102638420902982</v>
       </c>
       <c r="F26">
-        <v>0.001238321325377139</v>
+        <v>4.266821309831473</v>
       </c>
       <c r="G26">
-        <v>0.9006245891943933</v>
+        <v>3.155339425965618</v>
       </c>
       <c r="H26">
-        <v>1.91522109813145</v>
+        <v>1.472654676476381</v>
       </c>
       <c r="I26">
-        <v>-0.001287781793007508</v>
+        <v>3.102638420902982</v>
       </c>
       <c r="J26">
-        <v>1.002081670235646</v>
+        <v>0.6719815952770193</v>
       </c>
       <c r="K26">
-        <v>-0.001287781793007508</v>
+        <v>3.102638420902982</v>
       </c>
       <c r="L26">
-        <v>2.673399985149283</v>
+        <v>0.02000177124010596</v>
       </c>
       <c r="M26">
-        <v>1.33731915323733</v>
+        <v>2.143411540535789</v>
       </c>
       <c r="N26">
-        <v>1.33731915323733</v>
+        <v>2.143411540535789</v>
       </c>
       <c r="O26">
-        <v>1.529953134868703</v>
+        <v>1.919825919182653</v>
       </c>
       <c r="P26">
-        <v>0.8911168415605508</v>
+        <v>2.46315383399152</v>
       </c>
       <c r="Q26">
-        <v>0.8911168415605508</v>
+        <v>2.46315383399152</v>
       </c>
       <c r="R26">
-        <v>0.6680156857221612</v>
+        <v>2.623024980719386</v>
       </c>
       <c r="S26">
-        <v>0.6680156857221612</v>
+        <v>2.623024980719386</v>
       </c>
       <c r="T26">
-        <v>1.081879647040524</v>
+        <v>2.11490619994893</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>2.350424516406231</v>
+        <v>-0.0004948253013164551</v>
       </c>
       <c r="D27">
-        <v>6.944243907281651</v>
+        <v>0.001281277431758251</v>
       </c>
       <c r="E27">
-        <v>12.76828544186249</v>
+        <v>0.293487151043928</v>
       </c>
       <c r="F27">
-        <v>2.350424516406231</v>
+        <v>-0.0004948253013164551</v>
       </c>
       <c r="G27">
-        <v>-0.0009924414097307243</v>
+        <v>-0.0004099603055420438</v>
       </c>
       <c r="H27">
-        <v>0.002953520400257006</v>
+        <v>-0.0007043087674865656</v>
       </c>
       <c r="I27">
-        <v>12.76828544186249</v>
+        <v>0.293487151043928</v>
       </c>
       <c r="J27">
-        <v>4.407452260741914</v>
+        <v>1.052921191593845</v>
       </c>
       <c r="K27">
-        <v>12.76828544186249</v>
+        <v>0.293487151043928</v>
       </c>
       <c r="L27">
-        <v>6.944243907281651</v>
+        <v>0.001281277431758251</v>
       </c>
       <c r="M27">
-        <v>4.64733421184394</v>
+        <v>0.0003932260652208978</v>
       </c>
       <c r="N27">
-        <v>4.64733421184394</v>
+        <v>0.0003932260652208978</v>
       </c>
       <c r="O27">
-        <v>3.099207314696046</v>
+        <v>2.738112098507671E-05</v>
       </c>
       <c r="P27">
-        <v>7.354317955183458</v>
+        <v>0.09809120105812329</v>
       </c>
       <c r="Q27">
-        <v>7.354317955183459</v>
+        <v>0.09809120105812329</v>
       </c>
       <c r="R27">
-        <v>8.707809826853218</v>
+        <v>0.1469401885545745</v>
       </c>
       <c r="S27">
-        <v>8.707809826853218</v>
+        <v>0.1469401885545745</v>
       </c>
       <c r="T27">
-        <v>4.412061200880469</v>
+        <v>0.224346754282531</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>-0.0007117104341935011</v>
+        <v>0.001238321325377139</v>
       </c>
       <c r="D28">
-        <v>3.671086894668842</v>
+        <v>2.673399985149283</v>
       </c>
       <c r="E28">
-        <v>17.94273114094153</v>
+        <v>-0.001287781793007508</v>
       </c>
       <c r="F28">
-        <v>-0.0007117104341935011</v>
+        <v>0.001238321325377139</v>
       </c>
       <c r="G28">
-        <v>0.004151722341976105</v>
+        <v>0.9006245891943933</v>
       </c>
       <c r="H28">
-        <v>2.034128109369183</v>
+        <v>1.91522109813145</v>
       </c>
       <c r="I28">
-        <v>17.94273114094153</v>
+        <v>-0.001287781793007508</v>
       </c>
       <c r="J28">
-        <v>0.4621603378234242</v>
+        <v>1.002081670235646</v>
       </c>
       <c r="K28">
-        <v>17.94273114094153</v>
+        <v>-0.001287781793007508</v>
       </c>
       <c r="L28">
-        <v>3.671086894668842</v>
+        <v>2.673399985149283</v>
       </c>
       <c r="M28">
-        <v>1.835187592117324</v>
+        <v>1.33731915323733</v>
       </c>
       <c r="N28">
-        <v>1.835187592117324</v>
+        <v>1.33731915323733</v>
       </c>
       <c r="O28">
-        <v>1.901501097867944</v>
+        <v>1.529953134868703</v>
       </c>
       <c r="P28">
-        <v>7.204368775058726</v>
+        <v>0.8911168415605508</v>
       </c>
       <c r="Q28">
-        <v>7.204368775058728</v>
+        <v>0.8911168415605508</v>
       </c>
       <c r="R28">
-        <v>9.888959366529429</v>
+        <v>0.6680156857221612</v>
       </c>
       <c r="S28">
-        <v>9.888959366529429</v>
+        <v>0.6680156857221612</v>
       </c>
       <c r="T28">
-        <v>4.018924415785128</v>
+        <v>1.081879647040524</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>2.350424516406231</v>
+      </c>
+      <c r="D29">
+        <v>6.944243907281651</v>
+      </c>
+      <c r="E29">
+        <v>12.76828544186249</v>
+      </c>
+      <c r="F29">
+        <v>2.350424516406231</v>
+      </c>
+      <c r="G29">
+        <v>-0.0009924414097307243</v>
+      </c>
+      <c r="H29">
+        <v>0.002953520400257006</v>
+      </c>
+      <c r="I29">
+        <v>12.76828544186249</v>
+      </c>
+      <c r="J29">
+        <v>4.407452260741914</v>
+      </c>
+      <c r="K29">
+        <v>12.76828544186249</v>
+      </c>
+      <c r="L29">
+        <v>6.944243907281651</v>
+      </c>
+      <c r="M29">
+        <v>4.64733421184394</v>
+      </c>
+      <c r="N29">
+        <v>4.64733421184394</v>
+      </c>
+      <c r="O29">
+        <v>3.099207314696046</v>
+      </c>
+      <c r="P29">
+        <v>7.354317955183458</v>
+      </c>
+      <c r="Q29">
+        <v>7.354317955183459</v>
+      </c>
+      <c r="R29">
+        <v>8.707809826853218</v>
+      </c>
+      <c r="S29">
+        <v>8.707809826853218</v>
+      </c>
+      <c r="T29">
+        <v>4.412061200880469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>-0.0007117104341935011</v>
+      </c>
+      <c r="D30">
+        <v>3.671086894668842</v>
+      </c>
+      <c r="E30">
+        <v>17.94273114094153</v>
+      </c>
+      <c r="F30">
+        <v>-0.0007117104341935011</v>
+      </c>
+      <c r="G30">
+        <v>0.004151722341976105</v>
+      </c>
+      <c r="H30">
+        <v>2.034128109369183</v>
+      </c>
+      <c r="I30">
+        <v>17.94273114094153</v>
+      </c>
+      <c r="J30">
+        <v>0.4621603378234242</v>
+      </c>
+      <c r="K30">
+        <v>17.94273114094153</v>
+      </c>
+      <c r="L30">
+        <v>3.671086894668842</v>
+      </c>
+      <c r="M30">
+        <v>1.835187592117324</v>
+      </c>
+      <c r="N30">
+        <v>1.835187592117324</v>
+      </c>
+      <c r="O30">
+        <v>1.901501097867944</v>
+      </c>
+      <c r="P30">
+        <v>7.204368775058726</v>
+      </c>
+      <c r="Q30">
+        <v>7.204368775058728</v>
+      </c>
+      <c r="R30">
+        <v>9.888959366529429</v>
+      </c>
+      <c r="S30">
+        <v>9.888959366529429</v>
+      </c>
+      <c r="T30">
+        <v>4.018924415785128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.004621756573634974</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.012388824979436</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>40.36398890704374</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.004621756573634974</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.01132792651291777</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>2.27727298262311</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>40.36398890704374</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.003380187973948588</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>40.36398890704374</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>2.012388824979436</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.008505290776536</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.008505290776536</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.431427854725394</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>14.12699982953227</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>14.12699982953227</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>20.68624709891014</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>20.68624709891014</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>7.444370034959817</v>
       </c>
     </row>
